--- a/analysen/choropleth_CDU.xlsx
+++ b/analysen/choropleth_CDU.xlsx
@@ -2933,10 +2933,10 @@
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>22.8946984080619</v>
+        <v>22.8369972174876</v>
       </c>
       <c r="G2" t="n">
-        <v>3.79716339864419</v>
+        <v>3.73946220806985</v>
       </c>
     </row>
     <row r="3">
@@ -2956,10 +2956,10 @@
         <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>30.2113450659962</v>
+        <v>30.137705637545</v>
       </c>
       <c r="G3" t="n">
-        <v>7.36554624099801</v>
+        <v>7.29190681254675</v>
       </c>
     </row>
     <row r="4">
@@ -2979,10 +2979,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>28.6702812808915</v>
+        <v>28.5880701335165</v>
       </c>
       <c r="G4" t="n">
-        <v>6.90715986035223</v>
+        <v>6.82494871297729</v>
       </c>
     </row>
     <row r="5">
@@ -3002,10 +3002,10 @@
         <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>31.8953011110325</v>
+        <v>31.7814425356756</v>
       </c>
       <c r="G5" t="n">
-        <v>6.35422272484119</v>
+        <v>6.24036414948427</v>
       </c>
     </row>
     <row r="6">
@@ -3025,10 +3025,10 @@
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>25.2103281877669</v>
+        <v>25.0943064078061</v>
       </c>
       <c r="G6" t="n">
-        <v>5.78118388158062</v>
+        <v>5.66516210161982</v>
       </c>
     </row>
     <row r="7">
@@ -3048,10 +3048,10 @@
         <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>35.5170199100835</v>
+        <v>35.9324236517219</v>
       </c>
       <c r="G7" t="n">
-        <v>7.07951991008349</v>
+        <v>7.49492365172189</v>
       </c>
     </row>
     <row r="8">
@@ -3071,10 +3071,10 @@
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>33.2690453230473</v>
+        <v>33.3494441759304</v>
       </c>
       <c r="G8" t="n">
-        <v>8.73892484111954</v>
+        <v>8.81932369400269</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +3094,10 @@
         <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>30.9624471524496</v>
+        <v>30.893300248139</v>
       </c>
       <c r="G9" t="n">
-        <v>10.2054845245039</v>
+        <v>10.1363376201932</v>
       </c>
     </row>
     <row r="10">
@@ -3117,10 +3117,10 @@
         <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>33.8337988826816</v>
+        <v>33.6341548073586</v>
       </c>
       <c r="G10" t="n">
-        <v>11.1204360809135</v>
+        <v>10.9207920055904</v>
       </c>
     </row>
     <row r="11">
@@ -3140,10 +3140,10 @@
         <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>32.1461326811373</v>
+        <v>32.0872749465975</v>
       </c>
       <c r="G11" t="n">
-        <v>6.3705137529016</v>
+        <v>6.31165601836184</v>
       </c>
     </row>
     <row r="12">
@@ -3163,10 +3163,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>32.4817518248175</v>
+        <v>32.4172185430464</v>
       </c>
       <c r="G12" t="n">
-        <v>10.0170534936237</v>
+        <v>9.95252021185252</v>
       </c>
     </row>
     <row r="13">
@@ -3186,10 +3186,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>32.8318288197927</v>
+        <v>32.7770360480641</v>
       </c>
       <c r="G13" t="n">
-        <v>10.1305826089473</v>
+        <v>10.0757898372187</v>
       </c>
     </row>
     <row r="14">
@@ -3209,10 +3209,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>33.5522638345444</v>
+        <v>33.5241552638928</v>
       </c>
       <c r="G14" t="n">
-        <v>8.78424099371646</v>
+        <v>8.7561324230648</v>
       </c>
     </row>
     <row r="15">
@@ -3278,10 +3278,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>30.5383936451898</v>
+        <v>30.4042179261863</v>
       </c>
       <c r="G17" t="n">
-        <v>7.92446415249844</v>
+        <v>7.79028843349498</v>
       </c>
     </row>
     <row r="18">
@@ -3301,10 +3301,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>31.0133429498738</v>
+        <v>31.0693641618497</v>
       </c>
       <c r="G18" t="n">
-        <v>8.43504724703329</v>
+        <v>8.49106845900922</v>
       </c>
     </row>
     <row r="19">
@@ -3324,10 +3324,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>34.2503217503218</v>
+        <v>34.2062982005141</v>
       </c>
       <c r="G19" t="n">
-        <v>7.98958794860435</v>
+        <v>7.94556439879673</v>
       </c>
     </row>
     <row r="20">
@@ -3347,10 +3347,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>30.8052950910094</v>
+        <v>30.6699615595826</v>
       </c>
       <c r="G20" t="n">
-        <v>8.52283371936394</v>
+        <v>8.38750018793721</v>
       </c>
     </row>
     <row r="21">
@@ -3370,10 +3370,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>28.7327021121631</v>
+        <v>28.7641268683923</v>
       </c>
       <c r="G21" t="n">
-        <v>9.77422695899773</v>
+        <v>9.80565171522685</v>
       </c>
     </row>
     <row r="22">
@@ -3393,10 +3393,10 @@
         <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>32.6280152348709</v>
+        <v>32.4905183312263</v>
       </c>
       <c r="G22" t="n">
-        <v>8.96692736876214</v>
+        <v>8.82943046511751</v>
       </c>
     </row>
     <row r="23">
@@ -3416,10 +3416,10 @@
         <v>9</v>
       </c>
       <c r="F23" t="n">
-        <v>28.6339365173539</v>
+        <v>28.5429141716567</v>
       </c>
       <c r="G23" t="n">
-        <v>8.14874155986343</v>
+        <v>8.05771921416621</v>
       </c>
     </row>
     <row r="24">
@@ -3439,10 +3439,10 @@
         <v>9</v>
       </c>
       <c r="F24" t="n">
-        <v>33.2446808510638</v>
+        <v>33.1497348021216</v>
       </c>
       <c r="G24" t="n">
-        <v>10.763156152503</v>
+        <v>10.6682101035607</v>
       </c>
     </row>
     <row r="25">
@@ -3462,10 +3462,10 @@
         <v>9</v>
       </c>
       <c r="F25" t="n">
-        <v>29.1343196133001</v>
+        <v>29.1002194586686</v>
       </c>
       <c r="G25" t="n">
-        <v>8.24733821129727</v>
+        <v>8.21323805666576</v>
       </c>
     </row>
     <row r="26">
@@ -3485,10 +3485,10 @@
         <v>9</v>
       </c>
       <c r="F26" t="n">
-        <v>30.5274293486474</v>
+        <v>30.4583835946924</v>
       </c>
       <c r="G26" t="n">
-        <v>9.80738154464384</v>
+        <v>9.73833579068882</v>
       </c>
     </row>
     <row r="27">
@@ -3508,10 +3508,10 @@
         <v>9</v>
       </c>
       <c r="F27" t="n">
-        <v>31.8995786516854</v>
+        <v>31.8604243380677</v>
       </c>
       <c r="G27" t="n">
-        <v>8.12077680836742</v>
+        <v>8.08162249474971</v>
       </c>
     </row>
     <row r="28">
@@ -3531,10 +3531,10 @@
         <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>27.4261603375527</v>
+        <v>27.4366845740599</v>
       </c>
       <c r="G28" t="n">
-        <v>10.9263457287281</v>
+        <v>10.9368699652352</v>
       </c>
     </row>
     <row r="29">
@@ -3554,10 +3554,10 @@
         <v>9</v>
       </c>
       <c r="F29" t="n">
-        <v>34.6538916998601</v>
+        <v>34.5757250268528</v>
       </c>
       <c r="G29" t="n">
-        <v>9.42318700187348</v>
+        <v>9.34502032886627</v>
       </c>
     </row>
     <row r="30">
@@ -3577,10 +3577,10 @@
         <v>9</v>
       </c>
       <c r="F30" t="n">
-        <v>39.3650793650794</v>
+        <v>39.1991570073762</v>
       </c>
       <c r="G30" t="n">
-        <v>7.45846457908715</v>
+        <v>7.29254222138397</v>
       </c>
     </row>
     <row r="31">
@@ -3600,10 +3600,10 @@
         <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>38.2373066922129</v>
+        <v>38.1277292576419</v>
       </c>
       <c r="G31" t="n">
-        <v>6.41610142415388</v>
+        <v>6.30652398958286</v>
       </c>
     </row>
     <row r="32">
@@ -3623,10 +3623,10 @@
         <v>9</v>
       </c>
       <c r="F32" t="n">
-        <v>39.8907103825137</v>
+        <v>39.8616672733892</v>
       </c>
       <c r="G32" t="n">
-        <v>10.5485078695794</v>
+        <v>10.5194647604549</v>
       </c>
     </row>
     <row r="33">
@@ -3646,10 +3646,10 @@
         <v>9</v>
       </c>
       <c r="F33" t="n">
-        <v>38.3908045977011</v>
+        <v>38.3320581484315</v>
       </c>
       <c r="G33" t="n">
-        <v>9.20119012091122</v>
+        <v>9.1424436716416</v>
       </c>
     </row>
     <row r="34">
@@ -3669,10 +3669,10 @@
         <v>9</v>
       </c>
       <c r="F34" t="n">
-        <v>33.915614082236</v>
+        <v>33.7884872824632</v>
       </c>
       <c r="G34" t="n">
-        <v>7.27396305034102</v>
+        <v>7.14683625056825</v>
       </c>
     </row>
     <row r="35">
@@ -3692,10 +3692,10 @@
         <v>9</v>
       </c>
       <c r="F35" t="n">
-        <v>34.924718886983</v>
+        <v>34.8218527315914</v>
       </c>
       <c r="G35" t="n">
-        <v>6.70911661538794</v>
+        <v>6.60625045999635</v>
       </c>
     </row>
     <row r="36">
@@ -3715,10 +3715,10 @@
         <v>9</v>
       </c>
       <c r="F36" t="n">
-        <v>38.8379204892966</v>
+        <v>38.6521739130435</v>
       </c>
       <c r="G36" t="n">
-        <v>9.68680108631156</v>
+        <v>9.50105451005841</v>
       </c>
     </row>
     <row r="37">
@@ -3761,10 +3761,10 @@
         <v>9</v>
       </c>
       <c r="F38" t="n">
-        <v>35.9451219512195</v>
+        <v>35.7056329497274</v>
       </c>
       <c r="G38" t="n">
-        <v>4.75939902320983</v>
+        <v>4.51991002171776</v>
       </c>
     </row>
     <row r="39">
@@ -3784,10 +3784,10 @@
         <v>9</v>
       </c>
       <c r="F39" t="n">
-        <v>37.544036235531</v>
+        <v>37.5629405840886</v>
       </c>
       <c r="G39" t="n">
-        <v>6.9042197685414</v>
+        <v>6.92312411709907</v>
       </c>
     </row>
     <row r="40">
@@ -3807,10 +3807,10 @@
         <v>9</v>
       </c>
       <c r="F40" t="n">
-        <v>47.3023413640991</v>
+        <v>47.2222222222222</v>
       </c>
       <c r="G40" t="n">
-        <v>8.37936931229267</v>
+        <v>8.29925017041581</v>
       </c>
     </row>
     <row r="41">
@@ -3830,10 +3830,10 @@
         <v>9</v>
       </c>
       <c r="F41" t="n">
-        <v>41.0783055198973</v>
+        <v>40.9311844461499</v>
       </c>
       <c r="G41" t="n">
-        <v>9.84699266314276</v>
+        <v>9.69987158939536</v>
       </c>
     </row>
     <row r="42">
@@ -3853,10 +3853,10 @@
         <v>9</v>
       </c>
       <c r="F42" t="n">
-        <v>37.3219373219373</v>
+        <v>37.1947756956275</v>
       </c>
       <c r="G42" t="n">
-        <v>8.86294809244271</v>
+        <v>8.73578646613287</v>
       </c>
     </row>
     <row r="43">
@@ -3899,10 +3899,10 @@
         <v>9</v>
       </c>
       <c r="F44" t="n">
-        <v>36.8477869737316</v>
+        <v>36.7816091954023</v>
       </c>
       <c r="G44" t="n">
-        <v>6.68484646596346</v>
+        <v>6.6186686876342</v>
       </c>
     </row>
     <row r="45">
@@ -3922,10 +3922,10 @@
         <v>9</v>
       </c>
       <c r="F45" t="n">
-        <v>38.7550944794368</v>
+        <v>38.7982195845697</v>
       </c>
       <c r="G45" t="n">
-        <v>7.11688162073723</v>
+        <v>7.16000672587014</v>
       </c>
     </row>
     <row r="46">
@@ -3945,10 +3945,10 @@
         <v>9</v>
       </c>
       <c r="F46" t="n">
-        <v>33.5168195718654</v>
+        <v>33.4963325183374</v>
       </c>
       <c r="G46" t="n">
-        <v>10.2773829521471</v>
+        <v>10.2568958986191</v>
       </c>
     </row>
     <row r="47">
@@ -3968,10 +3968,10 @@
         <v>9</v>
       </c>
       <c r="F47" t="n">
-        <v>36.4366892434852</v>
+        <v>36.5752477529385</v>
       </c>
       <c r="G47" t="n">
-        <v>7.87552954539012</v>
+        <v>8.01408805484335</v>
       </c>
     </row>
     <row r="48">
@@ -3991,10 +3991,10 @@
         <v>9</v>
       </c>
       <c r="F48" t="n">
-        <v>39.0296495956873</v>
+        <v>38.8829215896885</v>
       </c>
       <c r="G48" t="n">
-        <v>7.40522563255369</v>
+        <v>7.25849762655486</v>
       </c>
     </row>
     <row r="49">
@@ -4014,10 +4014,10 @@
         <v>9</v>
       </c>
       <c r="F49" t="n">
-        <v>34.3466666666667</v>
+        <v>34.4385026737968</v>
       </c>
       <c r="G49" t="n">
-        <v>11.3039126411253</v>
+        <v>11.3957486482554</v>
       </c>
     </row>
     <row r="50">
@@ -4063,7 +4063,7 @@
         <v>39.1304347826087</v>
       </c>
       <c r="G51" t="n">
-        <v>9.14776580513902</v>
+        <v>9.14776580513903</v>
       </c>
     </row>
     <row r="52">
@@ -4083,10 +4083,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>34.4925703446095</v>
+        <v>34.5143941790573</v>
       </c>
       <c r="G52" t="n">
-        <v>6.94221296969077</v>
+        <v>6.96403680413849</v>
       </c>
     </row>
     <row r="53">
@@ -4106,10 +4106,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>30.4303625889529</v>
+        <v>30.2153432032302</v>
       </c>
       <c r="G53" t="n">
-        <v>8.12215262932975</v>
+        <v>7.907133243607</v>
       </c>
     </row>
     <row r="54">
@@ -4129,10 +4129,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>29.614181438999</v>
+        <v>29.5064935064935</v>
       </c>
       <c r="G54" t="n">
-        <v>8.61785913876492</v>
+        <v>8.51017120625947</v>
       </c>
     </row>
     <row r="55">
@@ -4152,10 +4152,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>26.2820512820513</v>
+        <v>26.1764010404351</v>
       </c>
       <c r="G55" t="n">
-        <v>7.71511833603337</v>
+        <v>7.60946809441718</v>
       </c>
     </row>
     <row r="56">
@@ -4175,10 +4175,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>28.1288505544798</v>
+        <v>28.1140042223786</v>
       </c>
       <c r="G56" t="n">
-        <v>7.62189755324767</v>
+        <v>7.60705122114642</v>
       </c>
     </row>
     <row r="57">
@@ -4198,10 +4198,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>30.3644513740012</v>
+        <v>30.252427184466</v>
       </c>
       <c r="G57" t="n">
-        <v>9.20479765948536</v>
+        <v>9.09277346995021</v>
       </c>
     </row>
     <row r="58">
@@ -4221,10 +4221,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>30.4583068109484</v>
+        <v>30.3520456707897</v>
       </c>
       <c r="G58" t="n">
-        <v>7.05066349884653</v>
+        <v>6.94440235868781</v>
       </c>
     </row>
     <row r="59">
@@ -4244,10 +4244,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>29.4788273615635</v>
+        <v>29.3990254466703</v>
       </c>
       <c r="G59" t="n">
-        <v>6.55144028323305</v>
+        <v>6.4716383683398</v>
       </c>
     </row>
     <row r="60">
@@ -4290,10 +4290,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>27.0406732117812</v>
+        <v>27.0255116344267</v>
       </c>
       <c r="G61" t="n">
-        <v>5.02382080623622</v>
+        <v>5.00865922888171</v>
       </c>
     </row>
     <row r="62">
@@ -4313,10 +4313,10 @@
         <v>9</v>
       </c>
       <c r="F62" t="n">
-        <v>24.4372990353698</v>
+        <v>24.2553191489362</v>
       </c>
       <c r="G62" t="n">
-        <v>5.68729903536978</v>
+        <v>5.50531914893617</v>
       </c>
     </row>
     <row r="63">
@@ -4336,10 +4336,10 @@
         <v>9</v>
       </c>
       <c r="F63" t="n">
-        <v>26.5396825396825</v>
+        <v>26.5144307009198</v>
       </c>
       <c r="G63" t="n">
-        <v>7.05250305250305</v>
+        <v>7.02725121374028</v>
       </c>
     </row>
     <row r="64">
@@ -4359,10 +4359,10 @@
         <v>9</v>
       </c>
       <c r="F64" t="n">
-        <v>30.1204819277108</v>
+        <v>30.0442757748261</v>
       </c>
       <c r="G64" t="n">
-        <v>8.04635969103984</v>
+        <v>7.97015353815506</v>
       </c>
     </row>
     <row r="65">
@@ -4382,10 +4382,10 @@
         <v>9</v>
       </c>
       <c r="F65" t="n">
-        <v>28.7972338849099</v>
+        <v>28.8185862580326</v>
       </c>
       <c r="G65" t="n">
-        <v>5.60361084556813</v>
+        <v>5.62496321869089</v>
       </c>
     </row>
     <row r="66">
@@ -4405,10 +4405,10 @@
         <v>9</v>
       </c>
       <c r="F66" t="n">
-        <v>28.5398579321231</v>
+        <v>28.4724409448819</v>
       </c>
       <c r="G66" t="n">
-        <v>8.34055391440721</v>
+        <v>8.27313692716598</v>
       </c>
     </row>
     <row r="67">
@@ -4428,10 +4428,10 @@
         <v>9</v>
       </c>
       <c r="F67" t="n">
-        <v>28.1449893390192</v>
+        <v>27.9858657243816</v>
       </c>
       <c r="G67" t="n">
-        <v>8.22629015202732</v>
+        <v>8.06716653738976</v>
       </c>
     </row>
     <row r="68">
@@ -4451,10 +4451,10 @@
         <v>9</v>
       </c>
       <c r="F68" t="n">
-        <v>31.6550925925926</v>
+        <v>31.5273775216138</v>
       </c>
       <c r="G68" t="n">
-        <v>4.50242486940189</v>
+        <v>4.37470979842312</v>
       </c>
     </row>
     <row r="69">
@@ -4474,10 +4474,10 @@
         <v>9</v>
       </c>
       <c r="F69" t="n">
-        <v>31.0796723752792</v>
+        <v>30.941438102298</v>
       </c>
       <c r="G69" t="n">
-        <v>6.04203310999769</v>
+        <v>5.90379883701646</v>
       </c>
     </row>
     <row r="70">
@@ -4497,10 +4497,10 @@
         <v>9</v>
       </c>
       <c r="F70" t="n">
-        <v>32.1865443425076</v>
+        <v>32.0884146341463</v>
       </c>
       <c r="G70" t="n">
-        <v>7.43482547314171</v>
+        <v>7.33669576478041</v>
       </c>
     </row>
     <row r="71">
@@ -4520,10 +4520,10 @@
         <v>9</v>
       </c>
       <c r="F71" t="n">
-        <v>33.2053742802303</v>
+        <v>33.1799002685079</v>
       </c>
       <c r="G71" t="n">
-        <v>8.38523039533824</v>
+        <v>8.35975638361578</v>
       </c>
     </row>
     <row r="72">
@@ -4543,10 +4543,10 @@
         <v>9</v>
       </c>
       <c r="F72" t="n">
-        <v>32.0723684210526</v>
+        <v>32.1075740944018</v>
       </c>
       <c r="G72" t="n">
-        <v>8.00246988666706</v>
+        <v>8.03767556001619</v>
       </c>
     </row>
     <row r="73">
@@ -4566,10 +4566,10 @@
         <v>9</v>
       </c>
       <c r="F73" t="n">
-        <v>32.1100917431193</v>
+        <v>31.994459833795</v>
       </c>
       <c r="G73" t="n">
-        <v>7.13827663601668</v>
+        <v>7.02264472669242</v>
       </c>
     </row>
     <row r="74">
@@ -4589,10 +4589,10 @@
         <v>9</v>
       </c>
       <c r="F74" t="n">
-        <v>35.546875</v>
+        <v>35.408560311284</v>
       </c>
       <c r="G74" t="n">
-        <v>5.55854361143524</v>
+        <v>5.42022892271929</v>
       </c>
     </row>
     <row r="75">
@@ -4612,10 +4612,10 @@
         <v>9</v>
       </c>
       <c r="F75" t="n">
-        <v>29.623944742901</v>
+        <v>29.4656488549618</v>
       </c>
       <c r="G75" t="n">
-        <v>3.83175609146401</v>
+        <v>3.67346020352484</v>
       </c>
     </row>
     <row r="76">
@@ -4635,10 +4635,10 @@
         <v>9</v>
       </c>
       <c r="F76" t="n">
-        <v>31.7693612210288</v>
+        <v>31.7155756207675</v>
       </c>
       <c r="G76" t="n">
-        <v>8.88517413862349</v>
+        <v>8.83138853836215</v>
       </c>
     </row>
     <row r="77">
@@ -4658,10 +4658,10 @@
         <v>9</v>
       </c>
       <c r="F77" t="n">
-        <v>28.7439052704899</v>
+        <v>28.6640426024543</v>
       </c>
       <c r="G77" t="n">
-        <v>5.3015930222075</v>
+        <v>5.22173035417187</v>
       </c>
     </row>
     <row r="78">
@@ -4681,10 +4681,10 @@
         <v>9</v>
       </c>
       <c r="F78" t="n">
-        <v>41.5492957746479</v>
+        <v>41.6225749559083</v>
       </c>
       <c r="G78" t="n">
-        <v>7.46266677276465</v>
+        <v>7.53594595402505</v>
       </c>
     </row>
     <row r="79">
@@ -4704,10 +4704,10 @@
         <v>9</v>
       </c>
       <c r="F79" t="n">
-        <v>29.0092658588738</v>
+        <v>29.0196078431373</v>
       </c>
       <c r="G79" t="n">
-        <v>5.51908431015209</v>
+        <v>5.52942629441551</v>
       </c>
     </row>
     <row r="80">
@@ -4727,10 +4727,10 @@
         <v>9</v>
       </c>
       <c r="F80" t="n">
-        <v>31.8840579710145</v>
+        <v>31.7307692307692</v>
       </c>
       <c r="G80" t="n">
-        <v>6.76066211711518</v>
+        <v>6.60737337686992</v>
       </c>
     </row>
     <row r="81">
@@ -4750,10 +4750,10 @@
         <v>9</v>
       </c>
       <c r="F81" t="n">
-        <v>30.5890962312477</v>
+        <v>30.322814653609</v>
       </c>
       <c r="G81" t="n">
-        <v>6.2745219166734</v>
+        <v>6.00824033903468</v>
       </c>
     </row>
     <row r="82">
@@ -4773,10 +4773,10 @@
         <v>9</v>
       </c>
       <c r="F82" t="n">
-        <v>27.8534923339012</v>
+        <v>27.5949367088608</v>
       </c>
       <c r="G82" t="n">
-        <v>8.19057098558658</v>
+        <v>7.93201536054616</v>
       </c>
     </row>
     <row r="83">
@@ -4796,10 +4796,10 @@
         <v>9</v>
       </c>
       <c r="F83" t="n">
-        <v>36.9821092278719</v>
+        <v>37.1131585164186</v>
       </c>
       <c r="G83" t="n">
-        <v>8.83883437407077</v>
+        <v>8.96988366261744</v>
       </c>
     </row>
     <row r="84">
@@ -4819,10 +4819,10 @@
         <v>9</v>
       </c>
       <c r="F84" t="n">
-        <v>32.2018857459789</v>
+        <v>32.0950801547816</v>
       </c>
       <c r="G84" t="n">
-        <v>6.3419145038597</v>
+        <v>6.23510891266241</v>
       </c>
     </row>
     <row r="85">
@@ -4842,10 +4842,10 @@
         <v>9</v>
       </c>
       <c r="F85" t="n">
-        <v>27.0015698587127</v>
+        <v>26.9254852849092</v>
       </c>
       <c r="G85" t="n">
-        <v>7.63570103682897</v>
+        <v>7.55961646302546</v>
       </c>
     </row>
     <row r="86">
@@ -4865,10 +4865,10 @@
         <v>9</v>
       </c>
       <c r="F86" t="n">
-        <v>33.448275862069</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="G86" t="n">
-        <v>7.11759504862954</v>
+        <v>7.0026525198939</v>
       </c>
     </row>
     <row r="87">
@@ -4888,10 +4888,10 @@
         <v>9</v>
       </c>
       <c r="F87" t="n">
-        <v>29.04031394934</v>
+        <v>28.9989312433203</v>
       </c>
       <c r="G87" t="n">
-        <v>6.96661452737467</v>
+        <v>6.92523182135495</v>
       </c>
     </row>
     <row r="88">
@@ -4911,10 +4911,10 @@
         <v>9</v>
       </c>
       <c r="F88" t="n">
-        <v>27.2727272727273</v>
+        <v>27.1386430678466</v>
       </c>
       <c r="G88" t="n">
-        <v>5.70409982174688</v>
+        <v>5.57001561686621</v>
       </c>
     </row>
     <row r="89">
@@ -4934,10 +4934,10 @@
         <v>9</v>
       </c>
       <c r="F89" t="n">
-        <v>35.6275303643725</v>
+        <v>35.7723577235772</v>
       </c>
       <c r="G89" t="n">
-        <v>5.6320006370591</v>
+        <v>5.77682799626388</v>
       </c>
     </row>
     <row r="90">
@@ -4957,10 +4957,10 @@
         <v>9</v>
       </c>
       <c r="F90" t="n">
-        <v>27.5630669814838</v>
+        <v>27.6696606786427</v>
       </c>
       <c r="G90" t="n">
-        <v>5.93600801002647</v>
+        <v>6.0426017071854</v>
       </c>
     </row>
     <row r="91">
@@ -4980,10 +4980,10 @@
         <v>9</v>
       </c>
       <c r="F91" t="n">
-        <v>33.5457271364318</v>
+        <v>33.6213373403456</v>
       </c>
       <c r="G91" t="n">
-        <v>4.27743445350496</v>
+        <v>4.35304465741877</v>
       </c>
     </row>
     <row r="92">
@@ -5003,10 +5003,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>39.1566265060241</v>
+        <v>39.1132224861441</v>
       </c>
       <c r="G92" t="n">
-        <v>8.29604661706666</v>
+        <v>8.25264259718666</v>
       </c>
     </row>
     <row r="93">
@@ -5026,10 +5026,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>28.4057971014493</v>
+        <v>28.4470246734398</v>
       </c>
       <c r="G93" t="n">
-        <v>7.39739374010474</v>
+        <v>7.43862131209523</v>
       </c>
     </row>
     <row r="94">
@@ -5049,10 +5049,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>32.9085696081555</v>
+        <v>32.845786963434</v>
       </c>
       <c r="G94" t="n">
-        <v>6.13793932875325</v>
+        <v>6.07515668403182</v>
       </c>
     </row>
     <row r="95">
@@ -5072,10 +5072,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>31.439894319683</v>
+        <v>31.523178807947</v>
       </c>
       <c r="G95" t="n">
-        <v>11.0910571103806</v>
+        <v>11.1743415986447</v>
       </c>
     </row>
     <row r="96">
@@ -5095,10 +5095,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>39.2476489028213</v>
+        <v>39.1005621486571</v>
       </c>
       <c r="G96" t="n">
-        <v>6.04081778327672</v>
+        <v>5.8937310291125</v>
       </c>
     </row>
     <row r="97">
@@ -5118,10 +5118,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>38.7586206896552</v>
+        <v>38.7319090282564</v>
       </c>
       <c r="G97" t="n">
-        <v>7.85083970982809</v>
+        <v>7.82412804842928</v>
       </c>
     </row>
     <row r="98">
@@ -5141,10 +5141,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>35.1742468989959</v>
+        <v>35.0861688024746</v>
       </c>
       <c r="G98" t="n">
-        <v>6.57430830519789</v>
+        <v>6.48623020867662</v>
       </c>
     </row>
     <row r="99">
@@ -5164,10 +5164,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>33.0219187926698</v>
+        <v>32.9390681003584</v>
       </c>
       <c r="G99" t="n">
-        <v>7.49387800607109</v>
+        <v>7.41102731375974</v>
       </c>
     </row>
     <row r="100">
@@ -5187,10 +5187,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>37.4574347332577</v>
+        <v>37.2881355932203</v>
       </c>
       <c r="G100" t="n">
-        <v>5.29039184386715</v>
+        <v>5.12109270382982</v>
       </c>
     </row>
     <row r="101">
@@ -5210,10 +5210,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>36.1891706648389</v>
+        <v>35.6275303643725</v>
       </c>
       <c r="G101" t="n">
-        <v>6.14190530359653</v>
+        <v>5.58026500313007</v>
       </c>
     </row>
     <row r="102">
@@ -5233,10 +5233,10 @@
         <v>9</v>
       </c>
       <c r="F102" t="n">
-        <v>32.8374655647383</v>
+        <v>32.8736900165472</v>
       </c>
       <c r="G102" t="n">
-        <v>7.8646099729902</v>
+        <v>7.90083442479906</v>
       </c>
     </row>
     <row r="103">
@@ -5256,10 +5256,10 @@
         <v>9</v>
       </c>
       <c r="F103" t="n">
-        <v>32.5685506435367</v>
+        <v>32.4595649749024</v>
       </c>
       <c r="G103" t="n">
-        <v>6.61086053490315</v>
+        <v>6.5018748662689</v>
       </c>
     </row>
     <row r="104">
@@ -5279,10 +5279,10 @@
         <v>9</v>
       </c>
       <c r="F104" t="n">
-        <v>32.1079079608569</v>
+        <v>32.0739762219287</v>
       </c>
       <c r="G104" t="n">
-        <v>6.1849121802662</v>
+        <v>6.15098044133795</v>
       </c>
     </row>
     <row r="105">
@@ -5302,10 +5302,10 @@
         <v>9</v>
       </c>
       <c r="F105" t="n">
-        <v>30.5384299219071</v>
+        <v>30.5133470225873</v>
       </c>
       <c r="G105" t="n">
-        <v>4.93163380540226</v>
+        <v>4.90655090608241</v>
       </c>
     </row>
     <row r="106">
@@ -5325,10 +5325,10 @@
         <v>9</v>
       </c>
       <c r="F106" t="n">
-        <v>32.2648820007045</v>
+        <v>32.140350877193</v>
       </c>
       <c r="G106" t="n">
-        <v>9.3877591235816</v>
+        <v>9.2632280000701</v>
       </c>
     </row>
     <row r="107">
@@ -5348,10 +5348,10 @@
         <v>9</v>
       </c>
       <c r="F107" t="n">
-        <v>28.1081081081081</v>
+        <v>28.3121597096189</v>
       </c>
       <c r="G107" t="n">
-        <v>7.47582857399829</v>
+        <v>7.67988017550906</v>
       </c>
     </row>
     <row r="108">
@@ -5371,10 +5371,10 @@
         <v>9</v>
       </c>
       <c r="F108" t="n">
-        <v>43.3086012640835</v>
+        <v>43.0954334153678</v>
       </c>
       <c r="G108" t="n">
-        <v>9.55150091244708</v>
+        <v>9.33833306373133</v>
       </c>
     </row>
     <row r="109">
@@ -5394,10 +5394,10 @@
         <v>9</v>
       </c>
       <c r="F109" t="n">
-        <v>45.5967276227141</v>
+        <v>45.6186807896004</v>
       </c>
       <c r="G109" t="n">
-        <v>2.2863488720993</v>
+        <v>2.30830203898554</v>
       </c>
     </row>
     <row r="110">
@@ -5417,10 +5417,10 @@
         <v>9</v>
       </c>
       <c r="F110" t="n">
-        <v>53.6687631027254</v>
+        <v>53.5564853556485</v>
       </c>
       <c r="G110" t="n">
-        <v>1.56298445434143</v>
+        <v>1.45070670726459</v>
       </c>
     </row>
     <row r="111">
@@ -5440,10 +5440,10 @@
         <v>9</v>
       </c>
       <c r="F111" t="n">
-        <v>33.4617198553687</v>
+        <v>33.3307234575634</v>
       </c>
       <c r="G111" t="n">
-        <v>8.62876647120074</v>
+        <v>8.49777007339551</v>
       </c>
     </row>
     <row r="112">
@@ -5463,10 +5463,10 @@
         <v>9</v>
       </c>
       <c r="F112" t="n">
-        <v>35.4122621564482</v>
+        <v>35.6382978723404</v>
       </c>
       <c r="G112" t="n">
-        <v>8.74559548978154</v>
+        <v>8.97163120567376</v>
       </c>
     </row>
     <row r="113">
@@ -5486,10 +5486,10 @@
         <v>9</v>
       </c>
       <c r="F113" t="n">
-        <v>34.3612334801762</v>
+        <v>34.2857142857143</v>
       </c>
       <c r="G113" t="n">
-        <v>12.4404123658067</v>
+        <v>12.3648931713448</v>
       </c>
     </row>
     <row r="114">
@@ -5509,10 +5509,10 @@
         <v>9</v>
       </c>
       <c r="F114" t="n">
-        <v>35.0276243093923</v>
+        <v>34.8926802421574</v>
       </c>
       <c r="G114" t="n">
-        <v>13.7896913167744</v>
+        <v>13.6547472495396</v>
       </c>
     </row>
     <row r="115">
@@ -5532,10 +5532,10 @@
         <v>9</v>
       </c>
       <c r="F115" t="n">
-        <v>37.2833985466741</v>
+        <v>37.3042505592841</v>
       </c>
       <c r="G115" t="n">
-        <v>7.66463021822837</v>
+        <v>7.68548223083837</v>
       </c>
     </row>
     <row r="116">
@@ -5555,10 +5555,10 @@
         <v>9</v>
       </c>
       <c r="F116" t="n">
-        <v>31.4424635332253</v>
+        <v>31.3915857605178</v>
       </c>
       <c r="G116" t="n">
-        <v>10.058305652717</v>
+        <v>10.0074278800095</v>
       </c>
     </row>
     <row r="117">
@@ -5578,10 +5578,10 @@
         <v>9</v>
       </c>
       <c r="F117" t="n">
-        <v>26.8456375838926</v>
+        <v>26.6518600777346</v>
       </c>
       <c r="G117" t="n">
-        <v>5.97041582162177</v>
+        <v>5.77663831546374</v>
       </c>
     </row>
     <row r="118">
@@ -5601,10 +5601,10 @@
         <v>9</v>
       </c>
       <c r="F118" t="n">
-        <v>37.6971608832808</v>
+        <v>37.4803972817564</v>
       </c>
       <c r="G118" t="n">
-        <v>11.7769949942191</v>
+        <v>11.5602313926947</v>
       </c>
     </row>
     <row r="119">
@@ -5624,10 +5624,10 @@
         <v>9</v>
       </c>
       <c r="F119" t="n">
-        <v>32.1150592216582</v>
+        <v>32.0283496456294</v>
       </c>
       <c r="G119" t="n">
-        <v>8.9571644848161</v>
+        <v>8.87045490878733</v>
       </c>
     </row>
     <row r="120">
@@ -5647,10 +5647,10 @@
         <v>9</v>
       </c>
       <c r="F120" t="n">
-        <v>29.7651309846432</v>
+        <v>29.7785811116132</v>
       </c>
       <c r="G120" t="n">
-        <v>7.43734001077145</v>
+        <v>7.45079013774146</v>
       </c>
     </row>
     <row r="121">
@@ -5670,10 +5670,10 @@
         <v>9</v>
       </c>
       <c r="F121" t="n">
-        <v>32.8952172325666</v>
+        <v>32.9674350530552</v>
       </c>
       <c r="G121" t="n">
-        <v>11.5664139105583</v>
+        <v>11.6386317310469</v>
       </c>
     </row>
     <row r="122">
@@ -5693,10 +5693,10 @@
         <v>9</v>
       </c>
       <c r="F122" t="n">
-        <v>35.973229224763</v>
+        <v>35.6550580431177</v>
       </c>
       <c r="G122" t="n">
-        <v>8.83697056425488</v>
+        <v>8.51879938260966</v>
       </c>
     </row>
     <row r="123">
@@ -5716,10 +5716,10 @@
         <v>9</v>
       </c>
       <c r="F123" t="n">
-        <v>39.3900232618248</v>
+        <v>39.258114374034</v>
       </c>
       <c r="G123" t="n">
-        <v>5.4985838883438</v>
+        <v>5.36667500055304</v>
       </c>
     </row>
     <row r="124">
@@ -5739,10 +5739,10 @@
         <v>9</v>
       </c>
       <c r="F124" t="n">
-        <v>40.6935483870968</v>
+        <v>40.5040937550169</v>
       </c>
       <c r="G124" t="n">
-        <v>8.67205320770686</v>
+        <v>8.48259857562694</v>
       </c>
     </row>
     <row r="125">
@@ -5762,10 +5762,10 @@
         <v>9</v>
       </c>
       <c r="F125" t="n">
-        <v>37.8571428571429</v>
+        <v>37.5753278979085</v>
       </c>
       <c r="G125" t="n">
-        <v>6.50330757965964</v>
+        <v>6.22149262042533</v>
       </c>
     </row>
     <row r="126">
@@ -5785,10 +5785,10 @@
         <v>9</v>
       </c>
       <c r="F126" t="n">
-        <v>31.2082405345212</v>
+        <v>31.0354374307863</v>
       </c>
       <c r="G126" t="n">
-        <v>6.9957958586555</v>
+        <v>6.8229927549206</v>
       </c>
     </row>
     <row r="127">
@@ -5808,10 +5808,10 @@
         <v>9</v>
       </c>
       <c r="F127" t="n">
-        <v>39.919490103992</v>
+        <v>39.7527977284116</v>
       </c>
       <c r="G127" t="n">
-        <v>7.63748639341681</v>
+        <v>7.47079401783642</v>
       </c>
     </row>
     <row r="128">
@@ -5831,10 +5831,10 @@
         <v>9</v>
       </c>
       <c r="F128" t="n">
-        <v>32.4687987519501</v>
+        <v>32.3678071539658</v>
       </c>
       <c r="G128" t="n">
-        <v>9.85857635631995</v>
+        <v>9.75758475833566</v>
       </c>
     </row>
     <row r="129">
@@ -5854,10 +5854,10 @@
         <v>9</v>
       </c>
       <c r="F129" t="n">
-        <v>34.7049044056525</v>
+        <v>34.7337770382696</v>
       </c>
       <c r="G129" t="n">
-        <v>8.02986252960563</v>
+        <v>8.05873516222265</v>
       </c>
     </row>
     <row r="130">
@@ -5877,10 +5877,10 @@
         <v>9</v>
       </c>
       <c r="F130" t="n">
-        <v>39.4250513347023</v>
+        <v>39.3039918116684</v>
       </c>
       <c r="G130" t="n">
-        <v>7.87099728064821</v>
+        <v>7.74993775761432</v>
       </c>
     </row>
     <row r="131">
@@ -5900,10 +5900,10 @@
         <v>9</v>
       </c>
       <c r="F131" t="n">
-        <v>33.6311087756174</v>
+        <v>33.4815589850902</v>
       </c>
       <c r="G131" t="n">
-        <v>10.1413568878073</v>
+        <v>9.9918070972801</v>
       </c>
     </row>
     <row r="132">
@@ -5923,10 +5923,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>34.1259640102828</v>
+        <v>33.9731285988484</v>
       </c>
       <c r="G132" t="n">
-        <v>6.85323673755551</v>
+        <v>6.7004013261211</v>
       </c>
     </row>
     <row r="133">
@@ -5946,10 +5946,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>41.8067226890756</v>
+        <v>41.7628541448059</v>
       </c>
       <c r="G133" t="n">
-        <v>11.7101561654705</v>
+        <v>11.6662876212007</v>
       </c>
     </row>
     <row r="134">
@@ -5969,10 +5969,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>35.6001638672675</v>
+        <v>35.3683353683354</v>
       </c>
       <c r="G134" t="n">
-        <v>7.63949691557875</v>
+        <v>7.40766841664661</v>
       </c>
     </row>
     <row r="135">
@@ -5992,10 +5992,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>32.0081549439348</v>
+        <v>32.0244773074962</v>
       </c>
       <c r="G135" t="n">
-        <v>8.614838748562</v>
+        <v>8.63116111212343</v>
       </c>
     </row>
     <row r="136">
@@ -6015,10 +6015,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>33.8938265673793</v>
+        <v>33.772139779799</v>
       </c>
       <c r="G136" t="n">
-        <v>7.63671081785368</v>
+        <v>7.51502403027333</v>
       </c>
     </row>
     <row r="137">
@@ -6038,10 +6038,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>31.8967452300786</v>
+        <v>31.7400044672772</v>
       </c>
       <c r="G137" t="n">
-        <v>6.51455098547425</v>
+        <v>6.35781022267288</v>
       </c>
     </row>
     <row r="138">
@@ -6061,10 +6061,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>33.2006369426752</v>
+        <v>33.147853736089</v>
       </c>
       <c r="G138" t="n">
-        <v>8.44013583729565</v>
+        <v>8.38735263070952</v>
       </c>
     </row>
     <row r="139">
@@ -6084,10 +6084,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>47.2876151484135</v>
+        <v>47.3360655737705</v>
       </c>
       <c r="G139" t="n">
-        <v>7.9488837044189</v>
+        <v>7.99733412977589</v>
       </c>
     </row>
     <row r="140">
@@ -6107,10 +6107,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>37.0933270007124</v>
+        <v>37.1771986195406</v>
       </c>
       <c r="G140" t="n">
-        <v>7.87709187125126</v>
+        <v>7.96096349007948</v>
       </c>
     </row>
     <row r="141">
@@ -6130,10 +6130,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>24.5757089944165</v>
+        <v>24.5384042171501</v>
       </c>
       <c r="G141" t="n">
-        <v>3.72347603000396</v>
+        <v>3.68617125273758</v>
       </c>
     </row>
     <row r="142">
@@ -6153,10 +6153,10 @@
         <v>9</v>
       </c>
       <c r="F142" t="n">
-        <v>38.1427072402938</v>
+        <v>38.0927429918784</v>
       </c>
       <c r="G142" t="n">
-        <v>2.46745353225322</v>
+        <v>2.41748928383785</v>
       </c>
     </row>
     <row r="143">
@@ -6176,10 +6176,10 @@
         <v>9</v>
       </c>
       <c r="F143" t="n">
-        <v>38.2271831910703</v>
+        <v>38.4798413747522</v>
       </c>
       <c r="G143" t="n">
-        <v>7.27809630673158</v>
+        <v>7.53075449041348</v>
       </c>
     </row>
     <row r="144">
@@ -6199,10 +6199,10 @@
         <v>9</v>
       </c>
       <c r="F144" t="n">
-        <v>41.6102841677943</v>
+        <v>41.8082936777702</v>
       </c>
       <c r="G144" t="n">
-        <v>3.60186902052924</v>
+        <v>3.79987853050515</v>
       </c>
     </row>
     <row r="145">
@@ -6222,10 +6222,10 @@
         <v>9</v>
       </c>
       <c r="F145" t="n">
-        <v>39.3576170823614</v>
+        <v>39.3519681366393</v>
       </c>
       <c r="G145" t="n">
-        <v>5.73758254004705</v>
+        <v>5.73193359432494</v>
       </c>
     </row>
     <row r="146">
@@ -6245,10 +6245,10 @@
         <v>9</v>
       </c>
       <c r="F146" t="n">
-        <v>47.0308788598575</v>
+        <v>46.9658035184819</v>
       </c>
       <c r="G146" t="n">
-        <v>8.01527261736048</v>
+        <v>7.95019727598492</v>
       </c>
     </row>
     <row r="147">
@@ -6268,10 +6268,10 @@
         <v>9</v>
       </c>
       <c r="F147" t="n">
-        <v>48.3833449639451</v>
+        <v>48.4622553588071</v>
       </c>
       <c r="G147" t="n">
-        <v>5.97043872125163</v>
+        <v>6.04934911611361</v>
       </c>
     </row>
     <row r="148">
@@ -6291,10 +6291,10 @@
         <v>9</v>
       </c>
       <c r="F148" t="n">
-        <v>48.7345497351383</v>
+        <v>48.5915492957746</v>
       </c>
       <c r="G148" t="n">
-        <v>4.51403995446256</v>
+        <v>4.37103951509889</v>
       </c>
     </row>
     <row r="149">
@@ -6314,10 +6314,10 @@
         <v>9</v>
       </c>
       <c r="F149" t="n">
-        <v>48.5604606525912</v>
+        <v>48.2824427480916</v>
       </c>
       <c r="G149" t="n">
-        <v>8.38233101379849</v>
+        <v>8.10431310929893</v>
       </c>
     </row>
     <row r="150">
@@ -6337,10 +6337,10 @@
         <v>9</v>
       </c>
       <c r="F150" t="n">
-        <v>49.0703609187021</v>
+        <v>48.9098837209302</v>
       </c>
       <c r="G150" t="n">
-        <v>8.16127000961124</v>
+        <v>8.00079281183932</v>
       </c>
     </row>
     <row r="151">
@@ -6360,10 +6360,10 @@
         <v>9</v>
       </c>
       <c r="F151" t="n">
-        <v>52.3421588594705</v>
+        <v>52.271186440678</v>
       </c>
       <c r="G151" t="n">
-        <v>8.8890138017041</v>
+        <v>8.8180413829116</v>
       </c>
     </row>
     <row r="152">
@@ -6386,7 +6386,7 @@
         <v>45.6126727752757</v>
       </c>
       <c r="G152" t="n">
-        <v>9.49938846922027</v>
+        <v>9.49938846922029</v>
       </c>
     </row>
     <row r="153">
@@ -6406,10 +6406,10 @@
         <v>9</v>
       </c>
       <c r="F153" t="n">
-        <v>46.0669624848729</v>
+        <v>45.9927507047926</v>
       </c>
       <c r="G153" t="n">
-        <v>9.27527883220273</v>
+        <v>9.20106705212239</v>
       </c>
     </row>
     <row r="154">
@@ -6429,10 +6429,10 @@
         <v>9</v>
       </c>
       <c r="F154" t="n">
-        <v>36.8272951107985</v>
+        <v>36.7884750527056</v>
       </c>
       <c r="G154" t="n">
-        <v>9.41470769821104</v>
+        <v>9.37588764011814</v>
       </c>
     </row>
     <row r="155">
@@ -6452,10 +6452,10 @@
         <v>9</v>
       </c>
       <c r="F155" t="n">
-        <v>53.031465848043</v>
+        <v>52.9704867765427</v>
       </c>
       <c r="G155" t="n">
-        <v>9.19894981635682</v>
+        <v>9.13797074485658</v>
       </c>
     </row>
     <row r="156">
@@ -6475,10 +6475,10 @@
         <v>9</v>
       </c>
       <c r="F156" t="n">
-        <v>51.8229166666667</v>
+        <v>51.7017407118732</v>
       </c>
       <c r="G156" t="n">
-        <v>8.77602048884069</v>
+        <v>8.65484453404724</v>
       </c>
     </row>
     <row r="157">
@@ -6498,10 +6498,10 @@
         <v>9</v>
       </c>
       <c r="F157" t="n">
-        <v>48.3693660681568</v>
+        <v>48.1400437636761</v>
       </c>
       <c r="G157" t="n">
-        <v>9.87701355541102</v>
+        <v>9.64769125093033</v>
       </c>
     </row>
     <row r="158">
@@ -6521,10 +6521,10 @@
         <v>9</v>
       </c>
       <c r="F158" t="n">
-        <v>43.5180204410974</v>
+        <v>43.5414424111948</v>
       </c>
       <c r="G158" t="n">
-        <v>10.0050894066146</v>
+        <v>10.0285113767121</v>
       </c>
     </row>
     <row r="159">
@@ -6544,10 +6544,10 @@
         <v>9</v>
       </c>
       <c r="F159" t="n">
-        <v>47.2219026803175</v>
+        <v>47.24364138566</v>
       </c>
       <c r="G159" t="n">
-        <v>9.39317712401271</v>
+        <v>9.41491582935524</v>
       </c>
     </row>
     <row r="160">
@@ -6567,10 +6567,10 @@
         <v>9</v>
       </c>
       <c r="F160" t="n">
-        <v>46.0770818995182</v>
+        <v>46.1564977593933</v>
       </c>
       <c r="G160" t="n">
-        <v>12.7833234191926</v>
+        <v>12.8627392790677</v>
       </c>
     </row>
     <row r="161">
@@ -6590,10 +6590,10 @@
         <v>9</v>
       </c>
       <c r="F161" t="n">
-        <v>47.5329314579147</v>
+        <v>47.3268867400244</v>
       </c>
       <c r="G161" t="n">
-        <v>10.8038002824462</v>
+        <v>10.597755564556</v>
       </c>
     </row>
     <row r="162">
@@ -6613,10 +6613,10 @@
         <v>9</v>
       </c>
       <c r="F162" t="n">
-        <v>50.498753117207</v>
+        <v>50.341827221877</v>
       </c>
       <c r="G162" t="n">
-        <v>8.06475440503699</v>
+        <v>7.90782850970695</v>
       </c>
     </row>
     <row r="163">
@@ -6636,10 +6636,10 @@
         <v>9</v>
       </c>
       <c r="F163" t="n">
-        <v>39.4930498773508</v>
+        <v>39.5577395577396</v>
       </c>
       <c r="G163" t="n">
-        <v>5.77657478156534</v>
+        <v>5.84126446195412</v>
       </c>
     </row>
     <row r="164">
@@ -6659,10 +6659,10 @@
         <v>9</v>
       </c>
       <c r="F164" t="n">
-        <v>40.8152173913044</v>
+        <v>40.7930472569256</v>
       </c>
       <c r="G164" t="n">
-        <v>8.03680177706784</v>
+        <v>8.01463164268907</v>
       </c>
     </row>
     <row r="165">
@@ -6682,10 +6682,10 @@
         <v>9</v>
       </c>
       <c r="F165" t="n">
-        <v>46.4885825075399</v>
+        <v>46.2494642091727</v>
       </c>
       <c r="G165" t="n">
-        <v>3.66979056123112</v>
+        <v>3.43067226286401</v>
       </c>
     </row>
     <row r="166">
@@ -6705,10 +6705,10 @@
         <v>9</v>
       </c>
       <c r="F166" t="n">
-        <v>36.9540007730963</v>
+        <v>36.6143240137878</v>
       </c>
       <c r="G166" t="n">
-        <v>5.72422731031308</v>
+        <v>5.38455055100465</v>
       </c>
     </row>
     <row r="167">
@@ -6728,10 +6728,10 @@
         <v>9</v>
       </c>
       <c r="F167" t="n">
-        <v>39.8718218113049</v>
+        <v>39.651029150559</v>
       </c>
       <c r="G167" t="n">
-        <v>5.35433619820176</v>
+        <v>5.13354353745584</v>
       </c>
     </row>
     <row r="168">
@@ -6751,10 +6751,10 @@
         <v>9</v>
       </c>
       <c r="F168" t="n">
-        <v>38.2534775888717</v>
+        <v>38.1209087408548</v>
       </c>
       <c r="G168" t="n">
-        <v>8.06784401340764</v>
+        <v>7.93527516539075</v>
       </c>
     </row>
     <row r="169">
@@ -6774,10 +6774,10 @@
         <v>9</v>
       </c>
       <c r="F169" t="n">
-        <v>35.6158192090395</v>
+        <v>35.4555680539933</v>
       </c>
       <c r="G169" t="n">
-        <v>4.82431341753375</v>
+        <v>4.66406226248746</v>
       </c>
     </row>
     <row r="170">
@@ -6797,10 +6797,10 @@
         <v>9</v>
       </c>
       <c r="F170" t="n">
-        <v>40.319606637984</v>
+        <v>40.2289452166803</v>
       </c>
       <c r="G170" t="n">
-        <v>4.91269470933296</v>
+        <v>4.82203328802924</v>
       </c>
     </row>
     <row r="171">
@@ -6820,10 +6820,10 @@
         <v>9</v>
       </c>
       <c r="F171" t="n">
-        <v>35.9624145785877</v>
+        <v>35.8501277320465</v>
       </c>
       <c r="G171" t="n">
-        <v>4.18287778585829</v>
+        <v>4.07059093931714</v>
       </c>
     </row>
     <row r="172">
@@ -6843,10 +6843,10 @@
         <v>9</v>
       </c>
       <c r="F172" t="n">
-        <v>40.3457153365208</v>
+        <v>40.1341463414634</v>
       </c>
       <c r="G172" t="n">
-        <v>2.43138591275739</v>
+        <v>2.21981691770003</v>
       </c>
     </row>
     <row r="173">
@@ -6866,10 +6866,10 @@
         <v>9</v>
       </c>
       <c r="F173" t="n">
-        <v>35.9547027367097</v>
+        <v>35.8082706766917</v>
       </c>
       <c r="G173" t="n">
-        <v>4.79226841096535</v>
+        <v>4.64583635094742</v>
       </c>
     </row>
     <row r="174">
@@ -6889,10 +6889,10 @@
         <v>9</v>
       </c>
       <c r="F174" t="n">
-        <v>35.0531705395825</v>
+        <v>34.8746081504702</v>
       </c>
       <c r="G174" t="n">
-        <v>7.14135689565573</v>
+        <v>6.96279450654344</v>
       </c>
     </row>
     <row r="175">
@@ -6912,10 +6912,10 @@
         <v>9</v>
       </c>
       <c r="F175" t="n">
-        <v>35.5187319884726</v>
+        <v>35.1389878831076</v>
       </c>
       <c r="G175" t="n">
-        <v>9.92667698465291</v>
+        <v>9.54693287928792</v>
       </c>
     </row>
     <row r="176">
@@ -6935,10 +6935,10 @@
         <v>9</v>
       </c>
       <c r="F176" t="n">
-        <v>34.9730458221024</v>
+        <v>34.8322147651007</v>
       </c>
       <c r="G176" t="n">
-        <v>4.75442805059326</v>
+        <v>4.61359699359151</v>
       </c>
     </row>
     <row r="177">
@@ -6958,10 +6958,10 @@
         <v>9</v>
       </c>
       <c r="F177" t="n">
-        <v>34.0256670043904</v>
+        <v>33.928270752652</v>
       </c>
       <c r="G177" t="n">
-        <v>5.30112252421892</v>
+        <v>5.20372627248047</v>
       </c>
     </row>
     <row r="178">
@@ -6981,10 +6981,10 @@
         <v>9</v>
       </c>
       <c r="F178" t="n">
-        <v>34.5944967414917</v>
+        <v>34.5257452574526</v>
       </c>
       <c r="G178" t="n">
-        <v>4.99783976474748</v>
+        <v>4.92908828070838</v>
       </c>
     </row>
     <row r="179">
@@ -7004,10 +7004,10 @@
         <v>9</v>
       </c>
       <c r="F179" t="n">
-        <v>33.202846975089</v>
+        <v>33.1792318634424</v>
       </c>
       <c r="G179" t="n">
-        <v>6.11951364175563</v>
+        <v>6.09589853010905</v>
       </c>
     </row>
     <row r="180">
@@ -7027,10 +7027,10 @@
         <v>9</v>
       </c>
       <c r="F180" t="n">
-        <v>40.3793574846206</v>
+        <v>40.2967257844475</v>
       </c>
       <c r="G180" t="n">
-        <v>9.03432824485456</v>
+        <v>8.95169654468139</v>
       </c>
     </row>
     <row r="181">
@@ -7050,10 +7050,10 @@
         <v>9</v>
       </c>
       <c r="F181" t="n">
-        <v>36.4198945679578</v>
+        <v>36.1958997722096</v>
       </c>
       <c r="G181" t="n">
-        <v>9.50205525792605</v>
+        <v>9.27806046217779</v>
       </c>
     </row>
     <row r="182">
@@ -7073,10 +7073,10 @@
         <v>9</v>
       </c>
       <c r="F182" t="n">
-        <v>35.0475519549137</v>
+        <v>34.8511383537653</v>
       </c>
       <c r="G182" t="n">
-        <v>5.65578769348567</v>
+        <v>5.4593740923373</v>
       </c>
     </row>
     <row r="183">
@@ -7096,10 +7096,10 @@
         <v>9</v>
       </c>
       <c r="F183" t="n">
-        <v>35.8562482983937</v>
+        <v>35.729788388497</v>
       </c>
       <c r="G183" t="n">
-        <v>7.11894786298004</v>
+        <v>6.99248795308337</v>
       </c>
     </row>
     <row r="184">
@@ -7119,10 +7119,10 @@
         <v>9</v>
       </c>
       <c r="F184" t="n">
-        <v>34.4017094017094</v>
+        <v>34.2917997870075</v>
       </c>
       <c r="G184" t="n">
-        <v>6.81996773774048</v>
+        <v>6.71005812303854</v>
       </c>
     </row>
     <row r="185">
@@ -7142,10 +7142,10 @@
         <v>9</v>
       </c>
       <c r="F185" t="n">
-        <v>33.3241971586497</v>
+        <v>33.2968186589986</v>
       </c>
       <c r="G185" t="n">
-        <v>6.85966412477357</v>
+        <v>6.83228562512249</v>
       </c>
     </row>
     <row r="186">
@@ -7165,10 +7165,10 @@
         <v>9</v>
       </c>
       <c r="F186" t="n">
-        <v>34.6584938704028</v>
+        <v>34.6160573727479</v>
       </c>
       <c r="G186" t="n">
-        <v>8.44357258361293</v>
+        <v>8.40113608595808</v>
       </c>
     </row>
     <row r="187">
@@ -7188,10 +7188,10 @@
         <v>9</v>
       </c>
       <c r="F187" t="n">
-        <v>25.7439961703146</v>
+        <v>25.6886577145587</v>
       </c>
       <c r="G187" t="n">
-        <v>3.69441024102713</v>
+        <v>3.63907178527119</v>
       </c>
     </row>
     <row r="188">
@@ -7211,10 +7211,10 @@
         <v>9</v>
       </c>
       <c r="F188" t="n">
-        <v>36.9915764139591</v>
+        <v>36.9204900312275</v>
       </c>
       <c r="G188" t="n">
-        <v>7.2373411479128</v>
+        <v>7.16625476518119</v>
       </c>
     </row>
     <row r="189">
@@ -7234,10 +7234,10 @@
         <v>9</v>
       </c>
       <c r="F189" t="n">
-        <v>36.7212369258754</v>
+        <v>36.5964196691593</v>
       </c>
       <c r="G189" t="n">
-        <v>11.8716302622937</v>
+        <v>11.7468130055776</v>
       </c>
     </row>
     <row r="190">
@@ -7257,10 +7257,10 @@
         <v>9</v>
       </c>
       <c r="F190" t="n">
-        <v>35.6851147725672</v>
+        <v>35.6600056290459</v>
       </c>
       <c r="G190" t="n">
-        <v>8.77265964967302</v>
+        <v>8.74755050615164</v>
       </c>
     </row>
     <row r="191">
@@ -7280,10 +7280,10 @@
         <v>9</v>
       </c>
       <c r="F191" t="n">
-        <v>37.1234620280017</v>
+        <v>37.2498935717326</v>
       </c>
       <c r="G191" t="n">
-        <v>9.59259783047083</v>
+        <v>9.71902937420178</v>
       </c>
     </row>
     <row r="192">
@@ -7303,10 +7303,10 @@
         <v>9</v>
       </c>
       <c r="F192" t="n">
-        <v>37.6795268938327</v>
+        <v>37.5631667602471</v>
       </c>
       <c r="G192" t="n">
-        <v>9.89789055545239</v>
+        <v>9.78153042186673</v>
       </c>
     </row>
     <row r="193">
@@ -7326,10 +7326,10 @@
         <v>9</v>
       </c>
       <c r="F193" t="n">
-        <v>35.4243542435424</v>
+        <v>35.3963655517514</v>
       </c>
       <c r="G193" t="n">
-        <v>8.0142448115466</v>
+        <v>7.98625611975555</v>
       </c>
     </row>
     <row r="194">
@@ -7349,10 +7349,10 @@
         <v>9</v>
       </c>
       <c r="F194" t="n">
-        <v>35.4644808743169</v>
+        <v>35.4064375340971</v>
       </c>
       <c r="G194" t="n">
-        <v>7.58026887599503</v>
+        <v>7.5222255357752</v>
       </c>
     </row>
     <row r="195">
@@ -7372,10 +7372,10 @@
         <v>9</v>
       </c>
       <c r="F195" t="n">
-        <v>36.350595323483</v>
+        <v>36.0609079265689</v>
       </c>
       <c r="G195" t="n">
-        <v>10.0387852524109</v>
+        <v>9.74909785549681</v>
       </c>
     </row>
     <row r="196">
@@ -7395,10 +7395,10 @@
         <v>9</v>
       </c>
       <c r="F196" t="n">
-        <v>36.5657216494845</v>
+        <v>36.4249037227214</v>
       </c>
       <c r="G196" t="n">
-        <v>4.89567642883897</v>
+        <v>4.75485850207586</v>
       </c>
     </row>
     <row r="197">
@@ -7418,10 +7418,10 @@
         <v>9</v>
       </c>
       <c r="F197" t="n">
-        <v>33.731581043409</v>
+        <v>33.5933368588049</v>
       </c>
       <c r="G197" t="n">
-        <v>9.0552164364425</v>
+        <v>8.91697225183837</v>
       </c>
     </row>
     <row r="198">
@@ -7441,10 +7441,10 @@
         <v>9</v>
       </c>
       <c r="F198" t="n">
-        <v>37.7426785126686</v>
+        <v>37.6621244459038</v>
       </c>
       <c r="G198" t="n">
-        <v>7.79666390485664</v>
+        <v>7.71610983809179</v>
       </c>
     </row>
     <row r="199">
@@ -7464,10 +7464,10 @@
         <v>9</v>
       </c>
       <c r="F199" t="n">
-        <v>37.9625451263538</v>
+        <v>37.9454217410916</v>
       </c>
       <c r="G199" t="n">
-        <v>6.47157120168252</v>
+        <v>6.45444781642029</v>
       </c>
     </row>
     <row r="200">
@@ -7487,10 +7487,10 @@
         <v>9</v>
       </c>
       <c r="F200" t="n">
-        <v>34.607457373056</v>
+        <v>34.5750655185324</v>
       </c>
       <c r="G200" t="n">
-        <v>4.89038785834738</v>
+        <v>4.85799600382374</v>
       </c>
     </row>
     <row r="201">
@@ -7510,10 +7510,10 @@
         <v>9</v>
       </c>
       <c r="F201" t="n">
-        <v>36.3444392304083</v>
+        <v>36.2169745148469</v>
       </c>
       <c r="G201" t="n">
-        <v>11.1503828986274</v>
+        <v>11.022918183066</v>
       </c>
     </row>
     <row r="202">
@@ -7533,10 +7533,10 @@
         <v>9</v>
       </c>
       <c r="F202" t="n">
-        <v>31.4990896216872</v>
+        <v>31.403791851553</v>
       </c>
       <c r="G202" t="n">
-        <v>6.39244733040143</v>
+        <v>6.29714956026724</v>
       </c>
     </row>
     <row r="203">
@@ -7556,10 +7556,10 @@
         <v>9</v>
       </c>
       <c r="F203" t="n">
-        <v>35.3678653909601</v>
+        <v>35.1706036745407</v>
       </c>
       <c r="G203" t="n">
-        <v>11.7781218012165</v>
+        <v>11.5808600847971</v>
       </c>
     </row>
     <row r="204">
@@ -7579,10 +7579,10 @@
         <v>9</v>
       </c>
       <c r="F204" t="n">
-        <v>35.9435344253562</v>
+        <v>35.9387483355526</v>
       </c>
       <c r="G204" t="n">
-        <v>7.96967821620591</v>
+        <v>7.96489212640227</v>
       </c>
     </row>
     <row r="205">
@@ -7602,10 +7602,10 @@
         <v>9</v>
       </c>
       <c r="F205" t="n">
-        <v>51.251078515962</v>
+        <v>51.118760757315</v>
       </c>
       <c r="G205" t="n">
-        <v>5.96962156231965</v>
+        <v>5.83730380367259</v>
       </c>
     </row>
     <row r="206">
@@ -7625,10 +7625,10 @@
         <v>9</v>
       </c>
       <c r="F206" t="n">
-        <v>35.7487922705314</v>
+        <v>35.6258596973865</v>
       </c>
       <c r="G206" t="n">
-        <v>7.04000106174019</v>
+        <v>6.91706848859531</v>
       </c>
     </row>
     <row r="207">
@@ -7648,10 +7648,10 @@
         <v>9</v>
       </c>
       <c r="F207" t="n">
-        <v>36.1963190184049</v>
+        <v>36.0122075279756</v>
       </c>
       <c r="G207" t="n">
-        <v>7.88829298803614</v>
+        <v>7.70418149760681</v>
       </c>
     </row>
     <row r="208">
@@ -7671,10 +7671,10 @@
         <v>9</v>
       </c>
       <c r="F208" t="n">
-        <v>40</v>
+        <v>39.6445659603554</v>
       </c>
       <c r="G208" t="n">
-        <v>12.7826675693974</v>
+        <v>12.4272335297529</v>
       </c>
     </row>
     <row r="209">
@@ -7694,10 +7694,10 @@
         <v>9</v>
       </c>
       <c r="F209" t="n">
-        <v>32.0560058953574</v>
+        <v>31.9148936170213</v>
       </c>
       <c r="G209" t="n">
-        <v>8.23984990649946</v>
+        <v>8.09873762816334</v>
       </c>
     </row>
     <row r="210">
@@ -7717,10 +7717,10 @@
         <v>9</v>
       </c>
       <c r="F210" t="n">
-        <v>34.2115027829314</v>
+        <v>34.4930789375234</v>
       </c>
       <c r="G210" t="n">
-        <v>8.89358370778685</v>
+        <v>9.17515986237887</v>
       </c>
     </row>
     <row r="211">
@@ -7740,10 +7740,10 @@
         <v>9</v>
       </c>
       <c r="F211" t="n">
-        <v>42.5968109339408</v>
+        <v>42.906309751434</v>
       </c>
       <c r="G211" t="n">
-        <v>8.1938258593139</v>
+        <v>8.50332467680717</v>
       </c>
     </row>
     <row r="212">
@@ -7763,10 +7763,10 @@
         <v>9</v>
       </c>
       <c r="F212" t="n">
-        <v>37.5853018372703</v>
+        <v>37.4771002355404</v>
       </c>
       <c r="G212" t="n">
-        <v>9.76033401230252</v>
+        <v>9.65213241057261</v>
       </c>
     </row>
     <row r="213">
@@ -7786,10 +7786,10 @@
         <v>9</v>
       </c>
       <c r="F213" t="n">
-        <v>43.1111111111111</v>
+        <v>43.0632630410655</v>
       </c>
       <c r="G213" t="n">
-        <v>5.83235004916421</v>
+        <v>5.78450197911858</v>
       </c>
     </row>
     <row r="214">
@@ -7809,10 +7809,10 @@
         <v>9</v>
       </c>
       <c r="F214" t="n">
-        <v>37.1523388116308</v>
+        <v>37.0527974783294</v>
       </c>
       <c r="G214" t="n">
-        <v>10.6348648692642</v>
+        <v>10.5353235359627</v>
       </c>
     </row>
     <row r="215">
@@ -7832,10 +7832,10 @@
         <v>9</v>
       </c>
       <c r="F215" t="n">
-        <v>38.7248322147651</v>
+        <v>39.1717583163612</v>
       </c>
       <c r="G215" t="n">
-        <v>14.527976438962</v>
+        <v>14.974902540558</v>
       </c>
     </row>
     <row r="216">
@@ -7855,10 +7855,10 @@
         <v>9</v>
       </c>
       <c r="F216" t="n">
-        <v>35.495145631068</v>
+        <v>35.3852109949671</v>
       </c>
       <c r="G216" t="n">
-        <v>8.10451458190032</v>
+        <v>7.99457994579946</v>
       </c>
     </row>
     <row r="217">
@@ -7878,10 +7878,10 @@
         <v>9</v>
       </c>
       <c r="F217" t="n">
-        <v>35.9406608226568</v>
+        <v>35.9649122807018</v>
       </c>
       <c r="G217" t="n">
-        <v>7.70383583892223</v>
+        <v>7.7280872969672</v>
       </c>
     </row>
     <row r="218">
@@ -7901,10 +7901,10 @@
         <v>9</v>
       </c>
       <c r="F218" t="n">
-        <v>39.1524736415247</v>
+        <v>39.2479674796748</v>
       </c>
       <c r="G218" t="n">
-        <v>9.1677817165343</v>
+        <v>9.26327555468436</v>
       </c>
     </row>
     <row r="219">
@@ -7924,10 +7924,10 @@
         <v>9</v>
       </c>
       <c r="F219" t="n">
-        <v>34.7586469023185</v>
+        <v>34.7850893875999</v>
       </c>
       <c r="G219" t="n">
-        <v>8.36165725039001</v>
+        <v>8.38809973567135</v>
       </c>
     </row>
     <row r="220">
@@ -7947,10 +7947,10 @@
         <v>9</v>
       </c>
       <c r="F220" t="n">
-        <v>41.7385943279901</v>
+        <v>41.9975186104218</v>
       </c>
       <c r="G220" t="n">
-        <v>13.5351171869727</v>
+        <v>13.7940414694045</v>
       </c>
     </row>
     <row r="221">
@@ -7970,10 +7970,10 @@
         <v>9</v>
       </c>
       <c r="F221" t="n">
-        <v>36.9724254361283</v>
+        <v>36.9101123595506</v>
       </c>
       <c r="G221" t="n">
-        <v>13.3680565040895</v>
+        <v>13.3057434275117</v>
       </c>
     </row>
     <row r="222">
@@ -7993,10 +7993,10 @@
         <v>9</v>
       </c>
       <c r="F222" t="n">
-        <v>40.8105560791706</v>
+        <v>40.7146215326751</v>
       </c>
       <c r="G222" t="n">
-        <v>16.7348121657351</v>
+        <v>16.6388776192396</v>
       </c>
     </row>
     <row r="223">
@@ -8016,10 +8016,10 @@
         <v>9</v>
       </c>
       <c r="F223" t="n">
-        <v>43.1274017144546</v>
+        <v>42.9117647058824</v>
       </c>
       <c r="G223" t="n">
-        <v>7.3256524433176</v>
+        <v>7.11001543474533</v>
       </c>
     </row>
     <row r="224">
@@ -8039,10 +8039,10 @@
         <v>9</v>
       </c>
       <c r="F224" t="n">
-        <v>46.1356653273458</v>
+        <v>46.1029759093056</v>
       </c>
       <c r="G224" t="n">
-        <v>4.43207103881797</v>
+        <v>4.3993816207778</v>
       </c>
     </row>
     <row r="225">
@@ -8062,10 +8062,10 @@
         <v>9</v>
       </c>
       <c r="F225" t="n">
-        <v>42.7506213753107</v>
+        <v>42.7152317880795</v>
       </c>
       <c r="G225" t="n">
-        <v>11.3657292889798</v>
+        <v>11.3303397017485</v>
       </c>
     </row>
     <row r="226">
@@ -8085,10 +8085,10 @@
         <v>9</v>
       </c>
       <c r="F226" t="n">
-        <v>47.8009895547004</v>
+        <v>47.9459608491866</v>
       </c>
       <c r="G226" t="n">
-        <v>10.5155818293785</v>
+        <v>10.6605531238648</v>
       </c>
     </row>
     <row r="227">
@@ -8108,10 +8108,10 @@
         <v>9</v>
       </c>
       <c r="F227" t="n">
-        <v>39.1464311994113</v>
+        <v>39.1248391248391</v>
       </c>
       <c r="G227" t="n">
-        <v>5.8390989061196</v>
+        <v>5.81750683154739</v>
       </c>
     </row>
     <row r="228">
@@ -8131,10 +8131,10 @@
         <v>9</v>
       </c>
       <c r="F228" t="n">
-        <v>35.9401628479455</v>
+        <v>35.8858007184723</v>
       </c>
       <c r="G228" t="n">
-        <v>8.7244914900147</v>
+        <v>8.67012936054153</v>
       </c>
     </row>
     <row r="229">
@@ -8154,10 +8154,10 @@
         <v>9</v>
       </c>
       <c r="F229" t="n">
-        <v>39.6199812004834</v>
+        <v>39.5429873349863</v>
       </c>
       <c r="G229" t="n">
-        <v>8.00253520649928</v>
+        <v>7.92554134100213</v>
       </c>
     </row>
     <row r="230">
@@ -8177,10 +8177,10 @@
         <v>9</v>
       </c>
       <c r="F230" t="n">
-        <v>44.024045261669</v>
+        <v>43.9153439153439</v>
       </c>
       <c r="G230" t="n">
-        <v>5.0296318538478</v>
+        <v>4.92093050752268</v>
       </c>
     </row>
     <row r="231">
@@ -8200,10 +8200,10 @@
         <v>9</v>
       </c>
       <c r="F231" t="n">
-        <v>38.3982035928144</v>
+        <v>37.7483443708609</v>
       </c>
       <c r="G231" t="n">
-        <v>10.6883100177257</v>
+        <v>10.0384507957722</v>
       </c>
     </row>
     <row r="232">
@@ -8223,10 +8223,10 @@
         <v>9</v>
       </c>
       <c r="F232" t="n">
-        <v>39.8305084745763</v>
+        <v>39.7865292602135</v>
       </c>
       <c r="G232" t="n">
-        <v>7.39807604214383</v>
+        <v>7.35409682778104</v>
       </c>
     </row>
     <row r="233">
@@ -8246,10 +8246,10 @@
         <v>9</v>
       </c>
       <c r="F233" t="n">
-        <v>43.7301258122494</v>
+        <v>43.6336046351221</v>
       </c>
       <c r="G233" t="n">
-        <v>11.161380004067</v>
+        <v>11.0648588269397</v>
       </c>
     </row>
     <row r="234">
@@ -8269,10 +8269,10 @@
         <v>9</v>
       </c>
       <c r="F234" t="n">
-        <v>31.244323342416</v>
+        <v>31.2869486130059</v>
       </c>
       <c r="G234" t="n">
-        <v>8.83446483032105</v>
+        <v>8.87709010091098</v>
       </c>
     </row>
     <row r="235">
@@ -8292,10 +8292,10 @@
         <v>9</v>
       </c>
       <c r="F235" t="n">
-        <v>42.9029957203994</v>
+        <v>43.1337396916458</v>
       </c>
       <c r="G235" t="n">
-        <v>5.70163053268612</v>
+        <v>5.93237450393244</v>
       </c>
     </row>
     <row r="236">
@@ -8315,10 +8315,10 @@
         <v>9</v>
       </c>
       <c r="F236" t="n">
-        <v>31.5947242206235</v>
+        <v>31.6516516516517</v>
       </c>
       <c r="G236" t="n">
-        <v>6.54667809634419</v>
+        <v>6.60360552737234</v>
       </c>
     </row>
     <row r="237">
@@ -8338,10 +8338,10 @@
         <v>9</v>
       </c>
       <c r="F237" t="n">
-        <v>39.8851046368486</v>
+        <v>39.6815676668708</v>
       </c>
       <c r="G237" t="n">
-        <v>9.11427130351525</v>
+        <v>8.91073433353745</v>
       </c>
     </row>
     <row r="238">
@@ -8361,10 +8361,10 @@
         <v>9</v>
       </c>
       <c r="F238" t="n">
-        <v>42.5198938992042</v>
+        <v>42.2286617492097</v>
       </c>
       <c r="G238" t="n">
-        <v>8.57761166462653</v>
+        <v>8.28637951463198</v>
       </c>
     </row>
     <row r="239">
@@ -8407,10 +8407,10 @@
         <v>9</v>
       </c>
       <c r="F240" t="n">
-        <v>33.8288057406458</v>
+        <v>33.8172502134927</v>
       </c>
       <c r="G240" t="n">
-        <v>7.20453623222369</v>
+        <v>7.1929807050706</v>
       </c>
     </row>
     <row r="241">
@@ -8430,10 +8430,10 @@
         <v>9</v>
       </c>
       <c r="F241" t="n">
-        <v>36.7337807606264</v>
+        <v>36.6109253065775</v>
       </c>
       <c r="G241" t="n">
-        <v>7.61122136283765</v>
+        <v>7.48836590878872</v>
       </c>
     </row>
     <row r="242">
@@ -8453,10 +8453,10 @@
         <v>9</v>
       </c>
       <c r="F242" t="n">
-        <v>34.7738287560582</v>
+        <v>34.7037484885127</v>
       </c>
       <c r="G242" t="n">
-        <v>10.4845310971953</v>
+        <v>10.4144508296498</v>
       </c>
     </row>
     <row r="243">
@@ -8476,10 +8476,10 @@
         <v>9</v>
       </c>
       <c r="F243" t="n">
-        <v>43.2339401982333</v>
+        <v>43.1891623166791</v>
       </c>
       <c r="G243" t="n">
-        <v>7.65767377795452</v>
+        <v>7.6128958964003</v>
       </c>
     </row>
     <row r="244">
@@ -8499,10 +8499,10 @@
         <v>9</v>
       </c>
       <c r="F244" t="n">
-        <v>39.3397964906658</v>
+        <v>39.2894294630711</v>
       </c>
       <c r="G244" t="n">
-        <v>8.25659397889187</v>
+        <v>8.20622695129719</v>
       </c>
     </row>
     <row r="245">
@@ -8522,10 +8522,10 @@
         <v>9</v>
       </c>
       <c r="F245" t="n">
-        <v>35.8428204186559</v>
+        <v>35.8691657478868</v>
       </c>
       <c r="G245" t="n">
-        <v>8.55229575146717</v>
+        <v>8.57864108069808</v>
       </c>
     </row>
     <row r="246">
@@ -8545,10 +8545,10 @@
         <v>9</v>
       </c>
       <c r="F246" t="n">
-        <v>39.0595778787069</v>
+        <v>39.023088215668</v>
       </c>
       <c r="G246" t="n">
-        <v>11.1206661743948</v>
+        <v>11.0841765113558</v>
       </c>
     </row>
     <row r="247">
@@ -8568,10 +8568,10 @@
         <v>9</v>
       </c>
       <c r="F247" t="n">
-        <v>39.5007132667618</v>
+        <v>39.4838157707115</v>
       </c>
       <c r="G247" t="n">
-        <v>7.8282190942676</v>
+        <v>7.81132159821736</v>
       </c>
     </row>
     <row r="248">
@@ -8591,10 +8591,10 @@
         <v>9</v>
       </c>
       <c r="F248" t="n">
-        <v>38.4586676618772</v>
+        <v>38.372742506051</v>
       </c>
       <c r="G248" t="n">
-        <v>6.62716583037539</v>
+        <v>6.54124067454918</v>
       </c>
     </row>
     <row r="249">
@@ -8614,10 +8614,10 @@
         <v>9</v>
       </c>
       <c r="F249" t="n">
-        <v>42.837176799441</v>
+        <v>42.5546685178757</v>
       </c>
       <c r="G249" t="n">
-        <v>9.2669568332819</v>
+        <v>8.98444855171668</v>
       </c>
     </row>
     <row r="250">
@@ -8637,10 +8637,10 @@
         <v>9</v>
       </c>
       <c r="F250" t="n">
-        <v>45.4177016603478</v>
+        <v>45.2461578536077</v>
       </c>
       <c r="G250" t="n">
-        <v>7.31662217065197</v>
+        <v>7.14507836391194</v>
       </c>
     </row>
     <row r="251">
@@ -8660,10 +8660,10 @@
         <v>9</v>
       </c>
       <c r="F251" t="n">
-        <v>43.174991656469</v>
+        <v>43.1413961760783</v>
       </c>
       <c r="G251" t="n">
-        <v>6.85995978313979</v>
+        <v>6.82636430274903</v>
       </c>
     </row>
     <row r="252">
@@ -8683,10 +8683,10 @@
         <v>9</v>
       </c>
       <c r="F252" t="n">
-        <v>36.4561274284136</v>
+        <v>36.3573756944126</v>
       </c>
       <c r="G252" t="n">
-        <v>6.44395033873802</v>
+        <v>6.345198604737</v>
       </c>
     </row>
     <row r="253">
@@ -8706,10 +8706,10 @@
         <v>9</v>
       </c>
       <c r="F253" t="n">
-        <v>39.8171768707483</v>
+        <v>39.6569976709718</v>
       </c>
       <c r="G253" t="n">
-        <v>9.43769838866223</v>
+        <v>9.27751918888577</v>
       </c>
     </row>
     <row r="254">
@@ -8729,10 +8729,10 @@
         <v>9</v>
       </c>
       <c r="F254" t="n">
-        <v>31.4747767318368</v>
+        <v>31.3989886828798</v>
       </c>
       <c r="G254" t="n">
-        <v>8.11561538270283</v>
+        <v>8.03982733374584</v>
       </c>
     </row>
     <row r="255">
@@ -8752,10 +8752,10 @@
         <v>9</v>
       </c>
       <c r="F255" t="n">
-        <v>35.0375505488157</v>
+        <v>34.9870204788001</v>
       </c>
       <c r="G255" t="n">
-        <v>8.23223570190641</v>
+        <v>8.18170563189081</v>
       </c>
     </row>
     <row r="256">
@@ -8775,10 +8775,10 @@
         <v>9</v>
       </c>
       <c r="F256" t="n">
-        <v>37.9373623684854</v>
+        <v>37.8286062824032</v>
       </c>
       <c r="G256" t="n">
-        <v>8.16981157511347</v>
+        <v>8.0610554890312</v>
       </c>
     </row>
     <row r="257">
@@ -8798,10 +8798,10 @@
         <v>9</v>
       </c>
       <c r="F257" t="n">
-        <v>33.7837837837838</v>
+        <v>33.5880426568142</v>
       </c>
       <c r="G257" t="n">
-        <v>7.01556578010956</v>
+        <v>6.81982465313996</v>
       </c>
     </row>
     <row r="258">
@@ -8821,10 +8821,10 @@
         <v>9</v>
       </c>
       <c r="F258" t="n">
-        <v>38.4172530384721</v>
+        <v>38.3716684921504</v>
       </c>
       <c r="G258" t="n">
-        <v>7.88404939535598</v>
+        <v>7.83846484903432</v>
       </c>
     </row>
     <row r="259">
@@ -8844,10 +8844,10 @@
         <v>9</v>
       </c>
       <c r="F259" t="n">
-        <v>37.9345189975748</v>
+        <v>37.7665995975855</v>
       </c>
       <c r="G259" t="n">
-        <v>9.50771195161406</v>
+        <v>9.33979255162479</v>
       </c>
     </row>
     <row r="260">
@@ -8867,10 +8867,10 @@
         <v>9</v>
       </c>
       <c r="F260" t="n">
-        <v>38.374321303098</v>
+        <v>38.1974248927039</v>
       </c>
       <c r="G260" t="n">
-        <v>8.53012224092894</v>
+        <v>8.35322583053475</v>
       </c>
     </row>
     <row r="261">
@@ -8890,10 +8890,10 @@
         <v>9</v>
       </c>
       <c r="F261" t="n">
-        <v>39.0811455847255</v>
+        <v>38.8493475682088</v>
       </c>
       <c r="G261" t="n">
-        <v>7.92214733195908</v>
+        <v>7.69034931544233</v>
       </c>
     </row>
     <row r="262">
@@ -8913,10 +8913,10 @@
         <v>9</v>
       </c>
       <c r="F262" t="n">
-        <v>34.2993251290195</v>
+        <v>34.1907400079145</v>
       </c>
       <c r="G262" t="n">
-        <v>9.66799790701865</v>
+        <v>9.55941278591372</v>
       </c>
     </row>
     <row r="263">
@@ -8936,10 +8936,10 @@
         <v>9</v>
       </c>
       <c r="F263" t="n">
-        <v>32.7962577962578</v>
+        <v>32.7112493519959</v>
       </c>
       <c r="G263" t="n">
-        <v>9.2123237076893</v>
+        <v>9.12731526342737</v>
       </c>
     </row>
     <row r="264">
@@ -8959,10 +8959,10 @@
         <v>9</v>
       </c>
       <c r="F264" t="n">
-        <v>31.2553227729518</v>
+        <v>30.9861533265789</v>
       </c>
       <c r="G264" t="n">
-        <v>6.63700216226478</v>
+        <v>6.36783271589184</v>
       </c>
     </row>
     <row r="265">
@@ -8982,10 +8982,10 @@
         <v>9</v>
       </c>
       <c r="F265" t="n">
-        <v>34.3344018896575</v>
+        <v>34.2707982485685</v>
       </c>
       <c r="G265" t="n">
-        <v>8.44651888130096</v>
+        <v>8.38291524021199</v>
       </c>
     </row>
     <row r="266">
@@ -9005,10 +9005,10 @@
         <v>9</v>
       </c>
       <c r="F266" t="n">
-        <v>32.1917808219178</v>
+        <v>32.3973644196655</v>
       </c>
       <c r="G266" t="n">
-        <v>6.85026429053788</v>
+        <v>7.05584788828556</v>
       </c>
     </row>
     <row r="267">
@@ -9028,10 +9028,10 @@
         <v>9</v>
       </c>
       <c r="F267" t="n">
-        <v>35.4383986467437</v>
+        <v>35.4284103720406</v>
       </c>
       <c r="G267" t="n">
-        <v>5.34809861761469</v>
+        <v>5.33811034291154</v>
       </c>
     </row>
     <row r="268">
@@ -9051,10 +9051,10 @@
         <v>9</v>
       </c>
       <c r="F268" t="n">
-        <v>34.2720191731576</v>
+        <v>34.6037507562008</v>
       </c>
       <c r="G268" t="n">
-        <v>11.2714354019959</v>
+        <v>11.6031669850391</v>
       </c>
     </row>
     <row r="269">
@@ -9074,10 +9074,10 @@
         <v>9</v>
       </c>
       <c r="F269" t="n">
-        <v>31.4955203308063</v>
+        <v>31.7361111111111</v>
       </c>
       <c r="G269" t="n">
-        <v>11.2708012296827</v>
+        <v>11.5113920099875</v>
       </c>
     </row>
     <row r="270">
@@ -9097,10 +9097,10 @@
         <v>9</v>
       </c>
       <c r="F270" t="n">
-        <v>35.3606789250354</v>
+        <v>35.5113636363636</v>
       </c>
       <c r="G270" t="n">
-        <v>5.64844870920802</v>
+        <v>5.7991334205363</v>
       </c>
     </row>
     <row r="271">
@@ -9120,10 +9120,10 @@
         <v>9</v>
       </c>
       <c r="F271" t="n">
-        <v>34.2791411042945</v>
+        <v>34.3054489639294</v>
       </c>
       <c r="G271" t="n">
-        <v>10.1346544122793</v>
+        <v>10.1609622719142</v>
       </c>
     </row>
     <row r="272">
@@ -9143,10 +9143,10 @@
         <v>9</v>
       </c>
       <c r="F272" t="n">
-        <v>35.369616191534</v>
+        <v>35.3521647958554</v>
       </c>
       <c r="G272" t="n">
-        <v>7.67529096501993</v>
+        <v>7.65783956934137</v>
       </c>
     </row>
     <row r="273">
@@ -9166,10 +9166,10 @@
         <v>9</v>
       </c>
       <c r="F273" t="n">
-        <v>34.6118721461187</v>
+        <v>34.6990157930877</v>
       </c>
       <c r="G273" t="n">
-        <v>5.38684880344832</v>
+        <v>5.47399245041726</v>
       </c>
     </row>
     <row r="274">
@@ -9189,10 +9189,10 @@
         <v>9</v>
       </c>
       <c r="F274" t="n">
-        <v>34.4574780058651</v>
+        <v>34.5080763582966</v>
       </c>
       <c r="G274" t="n">
-        <v>6.677634197758</v>
+        <v>6.72823255018952</v>
       </c>
     </row>
     <row r="275">
@@ -9212,10 +9212,10 @@
         <v>9</v>
       </c>
       <c r="F275" t="n">
-        <v>38.8817755014938</v>
+        <v>38.8099971598978</v>
       </c>
       <c r="G275" t="n">
-        <v>7.579456302921</v>
+        <v>7.50767796132495</v>
       </c>
     </row>
     <row r="276">
@@ -9235,10 +9235,10 @@
         <v>9</v>
       </c>
       <c r="F276" t="n">
-        <v>33.2664526484751</v>
+        <v>33.1467413034786</v>
       </c>
       <c r="G276" t="n">
-        <v>5.24416402697791</v>
+        <v>5.12445268198139</v>
       </c>
     </row>
     <row r="277">
@@ -9258,10 +9258,10 @@
         <v>9</v>
       </c>
       <c r="F277" t="n">
-        <v>33.9693228582117</v>
+        <v>33.7546468401487</v>
       </c>
       <c r="G277" t="n">
-        <v>9.70960113149038</v>
+        <v>9.49492511342733</v>
       </c>
     </row>
     <row r="278">
@@ -9281,10 +9281,10 @@
         <v>9</v>
       </c>
       <c r="F278" t="n">
-        <v>31.7525328734641</v>
+        <v>31.697869593286</v>
       </c>
       <c r="G278" t="n">
-        <v>8.94704387324629</v>
+        <v>8.89238059306818</v>
       </c>
     </row>
     <row r="279">
@@ -9327,10 +9327,10 @@
         <v>9</v>
       </c>
       <c r="F280" t="n">
-        <v>39.4260334813803</v>
+        <v>39.2116887529732</v>
       </c>
       <c r="G280" t="n">
-        <v>8.03106451698953</v>
+        <v>7.81671978858244</v>
       </c>
     </row>
     <row r="281">
@@ -9350,10 +9350,10 @@
         <v>9</v>
       </c>
       <c r="F281" t="n">
-        <v>34.8301669545193</v>
+        <v>34.8904267589389</v>
       </c>
       <c r="G281" t="n">
-        <v>8.19530868901269</v>
+        <v>8.25556849343227</v>
       </c>
     </row>
     <row r="282">
@@ -9373,10 +9373,10 @@
         <v>9</v>
       </c>
       <c r="F282" t="n">
-        <v>45.0746268656716</v>
+        <v>44.8641765704584</v>
       </c>
       <c r="G282" t="n">
-        <v>6.82483228884337</v>
+        <v>6.61438199363014</v>
       </c>
     </row>
     <row r="283">
@@ -9396,10 +9396,10 @@
         <v>9</v>
       </c>
       <c r="F283" t="n">
-        <v>32.2707513972262</v>
+        <v>32.0715902077762</v>
       </c>
       <c r="G283" t="n">
-        <v>9.80889992214995</v>
+        <v>9.60973873269988</v>
       </c>
     </row>
     <row r="284">
@@ -9419,10 +9419,10 @@
         <v>9</v>
       </c>
       <c r="F284" t="n">
-        <v>35.7083333333333</v>
+        <v>35.530679933665</v>
       </c>
       <c r="G284" t="n">
-        <v>8.38218250081619</v>
+        <v>8.20452910114788</v>
       </c>
     </row>
     <row r="285">
@@ -9442,10 +9442,10 @@
         <v>9</v>
       </c>
       <c r="F285" t="n">
-        <v>40.7647584973166</v>
+        <v>40.7010493413708</v>
       </c>
       <c r="G285" t="n">
-        <v>6.0437567398474</v>
+        <v>5.98004758390161</v>
       </c>
     </row>
     <row r="286">
@@ -9465,10 +9465,10 @@
         <v>9</v>
       </c>
       <c r="F286" t="n">
-        <v>36.0377688407064</v>
+        <v>35.8621889681573</v>
       </c>
       <c r="G286" t="n">
-        <v>6.37879536499164</v>
+        <v>6.20321549244252</v>
       </c>
     </row>
     <row r="287">
@@ -9488,10 +9488,10 @@
         <v>9</v>
       </c>
       <c r="F287" t="n">
-        <v>34.9832615973219</v>
+        <v>34.9665391969407</v>
       </c>
       <c r="G287" t="n">
-        <v>9.37894336216579</v>
+        <v>9.36222096178467</v>
       </c>
     </row>
     <row r="288">
@@ -9511,10 +9511,10 @@
         <v>9</v>
       </c>
       <c r="F288" t="n">
-        <v>38.2352941176471</v>
+        <v>38.1317689530686</v>
       </c>
       <c r="G288" t="n">
-        <v>7.56264837773674</v>
+        <v>7.45912321315828</v>
       </c>
     </row>
     <row r="289">
@@ -9534,10 +9534,10 @@
         <v>9</v>
       </c>
       <c r="F289" t="n">
-        <v>45.5981941309255</v>
+        <v>45.5211267605634</v>
       </c>
       <c r="G289" t="n">
-        <v>8.64742652901973</v>
+        <v>8.5703591586576</v>
       </c>
     </row>
     <row r="290">
@@ -9557,10 +9557,10 @@
         <v>9</v>
       </c>
       <c r="F290" t="n">
-        <v>39.431728492502</v>
+        <v>39.5253164556962</v>
       </c>
       <c r="G290" t="n">
-        <v>7.26532346895409</v>
+        <v>7.35891143214832</v>
       </c>
     </row>
     <row r="291">
@@ -9580,10 +9580,10 @@
         <v>9</v>
       </c>
       <c r="F291" t="n">
-        <v>40.3185035389282</v>
+        <v>40.2981303688732</v>
       </c>
       <c r="G291" t="n">
-        <v>6.7915124955973</v>
+        <v>6.77113932554226</v>
       </c>
     </row>
     <row r="292">
@@ -9603,10 +9603,10 @@
         <v>9</v>
       </c>
       <c r="F292" t="n">
-        <v>37.2741194486983</v>
+        <v>37.1489621489622</v>
       </c>
       <c r="G292" t="n">
-        <v>4.18925706337721</v>
+        <v>4.06409976364105</v>
       </c>
     </row>
     <row r="293">
@@ -9626,10 +9626,10 @@
         <v>9</v>
       </c>
       <c r="F293" t="n">
-        <v>38.6835278858625</v>
+        <v>38.4962891255244</v>
       </c>
       <c r="G293" t="n">
-        <v>7.40449412928153</v>
+        <v>7.21725536894338</v>
       </c>
     </row>
     <row r="294">
@@ -9649,10 +9649,10 @@
         <v>9</v>
       </c>
       <c r="F294" t="n">
-        <v>34.5916266300618</v>
+        <v>34.4379911171848</v>
       </c>
       <c r="G294" t="n">
-        <v>7.37348119977492</v>
+        <v>7.21984568689798</v>
       </c>
     </row>
     <row r="295">
@@ -9672,10 +9672,10 @@
         <v>9</v>
       </c>
       <c r="F295" t="n">
-        <v>33.3042720139494</v>
+        <v>33.121387283237</v>
       </c>
       <c r="G295" t="n">
-        <v>6.92187861642536</v>
+        <v>6.73899388571292</v>
       </c>
     </row>
     <row r="296">
@@ -9695,10 +9695,10 @@
         <v>9</v>
       </c>
       <c r="F296" t="n">
-        <v>38.053390814127</v>
+        <v>37.9150834297043</v>
       </c>
       <c r="G296" t="n">
-        <v>10.5405042161889</v>
+        <v>10.4021968317661</v>
       </c>
     </row>
     <row r="297">
@@ -9718,10 +9718,10 @@
         <v>9</v>
       </c>
       <c r="F297" t="n">
-        <v>38.1427235899034</v>
+        <v>38.0124223602485</v>
       </c>
       <c r="G297" t="n">
-        <v>9.75754518185216</v>
+        <v>9.62724395219722</v>
       </c>
     </row>
     <row r="298">
@@ -9741,10 +9741,10 @@
         <v>9</v>
       </c>
       <c r="F298" t="n">
-        <v>39.2429760665973</v>
+        <v>38.9742927270378</v>
       </c>
       <c r="G298" t="n">
-        <v>7.0220036881446</v>
+        <v>6.75332034858516</v>
       </c>
     </row>
     <row r="299">
@@ -9764,10 +9764,10 @@
         <v>9</v>
       </c>
       <c r="F299" t="n">
-        <v>39.5502077066323</v>
+        <v>39.2968972388272</v>
       </c>
       <c r="G299" t="n">
-        <v>9.75925522965441</v>
+        <v>9.50594476184933</v>
       </c>
     </row>
     <row r="300">
@@ -9787,10 +9787,10 @@
         <v>9</v>
       </c>
       <c r="F300" t="n">
-        <v>37.5672043010753</v>
+        <v>37.2790930310103</v>
       </c>
       <c r="G300" t="n">
-        <v>10.2855876126789</v>
+        <v>9.99747634261399</v>
       </c>
     </row>
     <row r="301">
@@ -9810,10 +9810,10 @@
         <v>9</v>
       </c>
       <c r="F301" t="n">
-        <v>44.719969828399</v>
+        <v>44.6862634256642</v>
       </c>
       <c r="G301" t="n">
-        <v>9.37175554268474</v>
+        <v>9.33804913994994</v>
       </c>
     </row>
     <row r="302">
@@ -9833,10 +9833,10 @@
         <v>9</v>
       </c>
       <c r="F302" t="n">
-        <v>40.5803571428571</v>
+        <v>40.5381299241861</v>
       </c>
       <c r="G302" t="n">
-        <v>11.4690905228431</v>
+        <v>11.4268633041721</v>
       </c>
     </row>
     <row r="303">
@@ -9856,10 +9856,10 @@
         <v>9</v>
       </c>
       <c r="F303" t="n">
-        <v>36.9711697779741</v>
+        <v>36.8815426997245</v>
       </c>
       <c r="G303" t="n">
-        <v>7.96684077364514</v>
+        <v>7.87721369539552</v>
       </c>
     </row>
     <row r="304">
@@ -9879,10 +9879,10 @@
         <v>9</v>
       </c>
       <c r="F304" t="n">
-        <v>43.25</v>
+        <v>43.15111203492</v>
       </c>
       <c r="G304" t="n">
-        <v>9.73063474986552</v>
+        <v>9.6317467847855</v>
       </c>
     </row>
     <row r="305">
@@ -9902,10 +9902,10 @@
         <v>9</v>
       </c>
       <c r="F305" t="n">
-        <v>42.5589390962672</v>
+        <v>42.4546790788829</v>
       </c>
       <c r="G305" t="n">
-        <v>9.63295339186323</v>
+        <v>9.52869337447893</v>
       </c>
     </row>
     <row r="306">
@@ -9925,10 +9925,10 @@
         <v>9</v>
       </c>
       <c r="F306" t="n">
-        <v>37.0797626895188</v>
+        <v>37.0004933399112</v>
       </c>
       <c r="G306" t="n">
-        <v>7.84651243295816</v>
+        <v>7.76724308335058</v>
       </c>
     </row>
     <row r="307">
@@ -9948,10 +9948,10 @@
         <v>9</v>
       </c>
       <c r="F307" t="n">
-        <v>38.2011834319527</v>
+        <v>38.1560283687943</v>
       </c>
       <c r="G307" t="n">
-        <v>8.5023485231815</v>
+        <v>8.45719346002317</v>
       </c>
     </row>
     <row r="308">
@@ -9971,10 +9971,10 @@
         <v>9</v>
       </c>
       <c r="F308" t="n">
-        <v>38.5094525188504</v>
+        <v>38.3251767264818</v>
       </c>
       <c r="G308" t="n">
-        <v>10.8712106715747</v>
+        <v>10.6869348792061</v>
       </c>
     </row>
     <row r="309">
@@ -9994,10 +9994,10 @@
         <v>9</v>
       </c>
       <c r="F309" t="n">
-        <v>41.3900955690704</v>
+        <v>41.2717664385342</v>
       </c>
       <c r="G309" t="n">
-        <v>12.2406323155609</v>
+        <v>12.1223031850247</v>
       </c>
     </row>
     <row r="310">
@@ -10017,10 +10017,10 @@
         <v>9</v>
       </c>
       <c r="F310" t="n">
-        <v>38.8832941703032</v>
+        <v>38.8181411974978</v>
       </c>
       <c r="G310" t="n">
-        <v>8.36203966259916</v>
+        <v>8.29688668979369</v>
       </c>
     </row>
     <row r="311">
@@ -10040,10 +10040,10 @@
         <v>9</v>
       </c>
       <c r="F311" t="n">
-        <v>39.8642917726887</v>
+        <v>39.7631133671743</v>
       </c>
       <c r="G311" t="n">
-        <v>9.91253307286201</v>
+        <v>9.81135466734758</v>
       </c>
     </row>
     <row r="312">
@@ -10063,10 +10063,10 @@
         <v>9</v>
       </c>
       <c r="F312" t="n">
-        <v>43.0165519806584</v>
+        <v>42.936699461667</v>
       </c>
       <c r="G312" t="n">
-        <v>9.45217838855994</v>
+        <v>9.37232586956856</v>
       </c>
     </row>
     <row r="313">
@@ -10086,10 +10086,10 @@
         <v>9</v>
       </c>
       <c r="F313" t="n">
-        <v>38.008401756731</v>
+        <v>37.9034561553842</v>
       </c>
       <c r="G313" t="n">
-        <v>8.56792449016673</v>
+        <v>8.46297888881995</v>
       </c>
     </row>
     <row r="314">
@@ -10109,10 +10109,10 @@
         <v>9</v>
       </c>
       <c r="F314" t="n">
-        <v>31.8502350570853</v>
+        <v>31.8075117370892</v>
       </c>
       <c r="G314" t="n">
-        <v>9.8755010145321</v>
+        <v>9.83277769453601</v>
       </c>
     </row>
     <row r="315">
@@ -10132,10 +10132,10 @@
         <v>9</v>
       </c>
       <c r="F315" t="n">
-        <v>41.4851611259712</v>
+        <v>41.3692366315255</v>
       </c>
       <c r="G315" t="n">
-        <v>7.64014998459959</v>
+        <v>7.52422549015384</v>
       </c>
     </row>
     <row r="316">
@@ -10155,10 +10155,10 @@
         <v>9</v>
       </c>
       <c r="F316" t="n">
-        <v>35.9034267912773</v>
+        <v>35.7919254658385</v>
       </c>
       <c r="G316" t="n">
-        <v>8.87744772962546</v>
+        <v>8.76594640418671</v>
       </c>
     </row>
     <row r="317">
@@ -10178,10 +10178,10 @@
         <v>9</v>
       </c>
       <c r="F317" t="n">
-        <v>33.6404316925507</v>
+        <v>33.5257082896117</v>
       </c>
       <c r="G317" t="n">
-        <v>8.2914785519724</v>
+        <v>8.17675514903348</v>
       </c>
     </row>
     <row r="318">
@@ -10201,10 +10201,10 @@
         <v>9</v>
       </c>
       <c r="F318" t="n">
-        <v>33.9216530348687</v>
+        <v>33.7859082463913</v>
       </c>
       <c r="G318" t="n">
-        <v>9.31271448738267</v>
+        <v>9.17696969890528</v>
       </c>
     </row>
     <row r="319">
@@ -10224,10 +10224,10 @@
         <v>9</v>
       </c>
       <c r="F319" t="n">
-        <v>32.8905976931143</v>
+        <v>32.925122463261</v>
       </c>
       <c r="G319" t="n">
-        <v>7.52827885253458</v>
+        <v>7.56280362268131</v>
       </c>
     </row>
     <row r="320">
@@ -10247,10 +10247,10 @@
         <v>9</v>
       </c>
       <c r="F320" t="n">
-        <v>34.9690373428411</v>
+        <v>34.910078681154</v>
       </c>
       <c r="G320" t="n">
-        <v>9.53615705983975</v>
+        <v>9.47719839815269</v>
       </c>
     </row>
     <row r="321">
@@ -10270,10 +10270,10 @@
         <v>9</v>
       </c>
       <c r="F321" t="n">
-        <v>35.8715596330275</v>
+        <v>35.8255451713396</v>
       </c>
       <c r="G321" t="n">
-        <v>9.25443414746765</v>
+        <v>9.20841968577969</v>
       </c>
     </row>
     <row r="322">
@@ -10293,10 +10293,10 @@
         <v>9</v>
       </c>
       <c r="F322" t="n">
-        <v>33.8300311118389</v>
+        <v>33.8355715689486</v>
       </c>
       <c r="G322" t="n">
-        <v>9.53615615150882</v>
+        <v>9.54169660861852</v>
       </c>
     </row>
     <row r="323">
@@ -10316,10 +10316,10 @@
         <v>9</v>
       </c>
       <c r="F323" t="n">
-        <v>38.1848833942119</v>
+        <v>37.9608938547486</v>
       </c>
       <c r="G323" t="n">
-        <v>10.0441798766239</v>
+        <v>9.82019033716066</v>
       </c>
     </row>
     <row r="324">
@@ -10339,10 +10339,10 @@
         <v>9</v>
       </c>
       <c r="F324" t="n">
-        <v>33.4211947029121</v>
+        <v>33.3006360155681</v>
       </c>
       <c r="G324" t="n">
-        <v>8.8497830216636</v>
+        <v>8.72922433431962</v>
       </c>
     </row>
     <row r="325">
@@ -10362,10 +10362,10 @@
         <v>9</v>
       </c>
       <c r="F325" t="n">
-        <v>35.5942707616031</v>
+        <v>35.4721383475158</v>
       </c>
       <c r="G325" t="n">
-        <v>9.38711539507819</v>
+        <v>9.26498298099089</v>
       </c>
     </row>
     <row r="326">
@@ -10385,10 +10385,10 @@
         <v>9</v>
       </c>
       <c r="F326" t="n">
-        <v>33.5504885993485</v>
+        <v>33.2974137931034</v>
       </c>
       <c r="G326" t="n">
-        <v>11.2236187932543</v>
+        <v>10.9705439870093</v>
       </c>
     </row>
     <row r="327">
@@ -10408,10 +10408,10 @@
         <v>9</v>
       </c>
       <c r="F327" t="n">
-        <v>39.9529210357372</v>
+        <v>39.9614726027397</v>
       </c>
       <c r="G327" t="n">
-        <v>9.05392466588883</v>
+        <v>9.06247623289135</v>
       </c>
     </row>
     <row r="328">
@@ -10431,10 +10431,10 @@
         <v>9</v>
       </c>
       <c r="F328" t="n">
-        <v>40.064308681672</v>
+        <v>40.006421576497</v>
       </c>
       <c r="G328" t="n">
-        <v>6.28384082628188</v>
+        <v>6.22595372110688</v>
       </c>
     </row>
     <row r="329">
@@ -10454,10 +10454,10 @@
         <v>9</v>
       </c>
       <c r="F329" t="n">
-        <v>39.1185153943484</v>
+        <v>39.0773119865178</v>
       </c>
       <c r="G329" t="n">
-        <v>7.70258619080855</v>
+        <v>7.66138278297798</v>
       </c>
     </row>
     <row r="330">
@@ -10477,10 +10477,10 @@
         <v>9</v>
       </c>
       <c r="F330" t="n">
-        <v>35.776509462301</v>
+        <v>35.5098389982111</v>
       </c>
       <c r="G330" t="n">
-        <v>6.66526399676291</v>
+        <v>6.39859353267301</v>
       </c>
     </row>
     <row r="331">
@@ -10500,10 +10500,10 @@
         <v>9</v>
       </c>
       <c r="F331" t="n">
-        <v>28.2793209876543</v>
+        <v>28.1706379707917</v>
       </c>
       <c r="G331" t="n">
-        <v>8.09859809608806</v>
+        <v>7.98991507922543</v>
       </c>
     </row>
     <row r="332">
@@ -10523,10 +10523,10 @@
         <v>9</v>
       </c>
       <c r="F332" t="n">
-        <v>33.3100069979006</v>
+        <v>33.2402234636872</v>
       </c>
       <c r="G332" t="n">
-        <v>12.4224783062403</v>
+        <v>12.3526947720269</v>
       </c>
     </row>
     <row r="333">
@@ -10546,10 +10546,10 @@
         <v>9</v>
       </c>
       <c r="F333" t="n">
-        <v>35.4753288021891</v>
+        <v>35.3318681318681</v>
       </c>
       <c r="G333" t="n">
-        <v>9.09150093475891</v>
+        <v>8.94804026443797</v>
       </c>
     </row>
     <row r="334">
@@ -10569,10 +10569,10 @@
         <v>9</v>
       </c>
       <c r="F334" t="n">
-        <v>43.8790206433029</v>
+        <v>43.9846005774783</v>
       </c>
       <c r="G334" t="n">
-        <v>6.77300345132586</v>
+        <v>6.87858338550127</v>
       </c>
     </row>
     <row r="335">
@@ -10592,10 +10592,10 @@
         <v>9</v>
       </c>
       <c r="F335" t="n">
-        <v>33.9064914992272</v>
+        <v>33.7305400730348</v>
       </c>
       <c r="G335" t="n">
-        <v>9.93910019487937</v>
+        <v>9.76314876868696</v>
       </c>
     </row>
     <row r="336">
@@ -10615,10 +10615,10 @@
         <v>9</v>
       </c>
       <c r="F336" t="n">
-        <v>35.9340227778505</v>
+        <v>35.8261550509005</v>
       </c>
       <c r="G336" t="n">
-        <v>10.1642944466733</v>
+        <v>10.0564267197233</v>
       </c>
     </row>
     <row r="337">
@@ -10638,10 +10638,10 @@
         <v>9</v>
       </c>
       <c r="F337" t="n">
-        <v>35.9757330637007</v>
+        <v>35.8091787439613</v>
       </c>
       <c r="G337" t="n">
-        <v>9.79114303485852</v>
+        <v>9.62458871511915</v>
       </c>
     </row>
     <row r="338">
@@ -10661,10 +10661,10 @@
         <v>9</v>
       </c>
       <c r="F338" t="n">
-        <v>36.0704911886014</v>
+        <v>35.9895248784138</v>
       </c>
       <c r="G338" t="n">
-        <v>5.80909069251289</v>
+        <v>5.72812438232524</v>
       </c>
     </row>
     <row r="339">
@@ -10684,10 +10684,10 @@
         <v>9</v>
       </c>
       <c r="F339" t="n">
-        <v>37.667693271389</v>
+        <v>37.5970405877143</v>
       </c>
       <c r="G339" t="n">
-        <v>8.11297704039809</v>
+        <v>8.04232435672331</v>
       </c>
     </row>
     <row r="340">
@@ -10707,10 +10707,10 @@
         <v>9</v>
       </c>
       <c r="F340" t="n">
-        <v>33.303297891512</v>
+        <v>33.2433890987588</v>
       </c>
       <c r="G340" t="n">
-        <v>10.0795439148418</v>
+        <v>10.0196351220886</v>
       </c>
     </row>
     <row r="341">
@@ -10730,10 +10730,10 @@
         <v>9</v>
       </c>
       <c r="F341" t="n">
-        <v>33.0977472076734</v>
+        <v>33.0372889896699</v>
       </c>
       <c r="G341" t="n">
-        <v>7.5764333121207</v>
+        <v>7.51597509411726</v>
       </c>
     </row>
     <row r="342">
@@ -10753,10 +10753,10 @@
         <v>9</v>
       </c>
       <c r="F342" t="n">
-        <v>35.2503284192089</v>
+        <v>35.1912568306011</v>
       </c>
       <c r="G342" t="n">
-        <v>7.76983404649604</v>
+        <v>7.71076245788825</v>
       </c>
     </row>
     <row r="343">
@@ -10776,10 +10776,10 @@
         <v>9</v>
       </c>
       <c r="F343" t="n">
-        <v>34.997662459093</v>
+        <v>34.9062762286674</v>
       </c>
       <c r="G343" t="n">
-        <v>8.86393902737459</v>
+        <v>8.77255279694891</v>
       </c>
     </row>
     <row r="344">
@@ -10799,10 +10799,10 @@
         <v>9</v>
       </c>
       <c r="F344" t="n">
-        <v>39.3908398681668</v>
+        <v>39.4715863796834</v>
       </c>
       <c r="G344" t="n">
-        <v>6.64861147376453</v>
+        <v>6.7293579852811</v>
       </c>
     </row>
     <row r="345">
@@ -10822,10 +10822,10 @@
         <v>9</v>
       </c>
       <c r="F345" t="n">
-        <v>35.8076009501188</v>
+        <v>35.6895239705758</v>
       </c>
       <c r="G345" t="n">
-        <v>8.21447314022795</v>
+        <v>8.09639616068499</v>
       </c>
     </row>
     <row r="346">
@@ -10845,10 +10845,10 @@
         <v>9</v>
       </c>
       <c r="F346" t="n">
-        <v>40.0949726437494</v>
+        <v>39.987645423659</v>
       </c>
       <c r="G346" t="n">
-        <v>8.19382128177239</v>
+        <v>8.08649406168204</v>
       </c>
     </row>
     <row r="347">
@@ -10868,10 +10868,10 @@
         <v>9</v>
       </c>
       <c r="F347" t="n">
-        <v>41.8523878437048</v>
+        <v>41.8100332514096</v>
       </c>
       <c r="G347" t="n">
-        <v>9.76853389396161</v>
+        <v>9.72617930166641</v>
       </c>
     </row>
     <row r="348">
@@ -10891,10 +10891,10 @@
         <v>9</v>
       </c>
       <c r="F348" t="n">
-        <v>34.9066077525608</v>
+        <v>34.927652733119</v>
       </c>
       <c r="G348" t="n">
-        <v>8.98300098988073</v>
+        <v>9.00404597043894</v>
       </c>
     </row>
     <row r="349">
@@ -10914,10 +10914,10 @@
         <v>9</v>
       </c>
       <c r="F349" t="n">
-        <v>36.1705101327743</v>
+        <v>36.1133075957021</v>
       </c>
       <c r="G349" t="n">
-        <v>7.91641288233409</v>
+        <v>7.85921034526192</v>
       </c>
     </row>
     <row r="350">
@@ -10937,10 +10937,10 @@
         <v>9</v>
       </c>
       <c r="F350" t="n">
-        <v>39.5006892326543</v>
+        <v>39.4071357628543</v>
       </c>
       <c r="G350" t="n">
-        <v>8.5258000155199</v>
+        <v>8.4322465457199</v>
       </c>
     </row>
     <row r="351">
@@ -10960,10 +10960,10 @@
         <v>9</v>
       </c>
       <c r="F351" t="n">
-        <v>39.7117694155324</v>
+        <v>39.6870554765292</v>
       </c>
       <c r="G351" t="n">
-        <v>8.41626902083021</v>
+        <v>8.39155508182694</v>
       </c>
     </row>
     <row r="352">
@@ -10983,10 +10983,10 @@
         <v>9</v>
       </c>
       <c r="F352" t="n">
-        <v>35.5542452830189</v>
+        <v>35.4914655679812</v>
       </c>
       <c r="G352" t="n">
-        <v>9.3396163454855</v>
+        <v>9.2768366304478</v>
       </c>
     </row>
     <row r="353">
@@ -11006,10 +11006,10 @@
         <v>9</v>
       </c>
       <c r="F353" t="n">
-        <v>30.3853155339806</v>
+        <v>30.3392911239018</v>
       </c>
       <c r="G353" t="n">
-        <v>7.24574799677194</v>
+        <v>7.1997235866932</v>
       </c>
     </row>
     <row r="354">
@@ -11029,10 +11029,10 @@
         <v>9</v>
       </c>
       <c r="F354" t="n">
-        <v>33.5142742259751</v>
+        <v>33.5075376884422</v>
       </c>
       <c r="G354" t="n">
-        <v>10.4904114370116</v>
+        <v>10.4836748994788</v>
       </c>
     </row>
     <row r="355">
@@ -11052,10 +11052,10 @@
         <v>9</v>
       </c>
       <c r="F355" t="n">
-        <v>37.4293489637848</v>
+        <v>37.2810675562969</v>
       </c>
       <c r="G355" t="n">
-        <v>11.1266194352488</v>
+        <v>10.9783380277609</v>
       </c>
     </row>
     <row r="356">
@@ -11075,10 +11075,10 @@
         <v>9</v>
       </c>
       <c r="F356" t="n">
-        <v>33.4196220553974</v>
+        <v>33.3764219234747</v>
       </c>
       <c r="G356" t="n">
-        <v>11.2470695296933</v>
+        <v>11.2038693977706</v>
       </c>
     </row>
     <row r="357">
@@ -11098,10 +11098,10 @@
         <v>9</v>
       </c>
       <c r="F357" t="n">
-        <v>35.15110673371</v>
+        <v>34.9987096774194</v>
       </c>
       <c r="G357" t="n">
-        <v>10.0387752309641</v>
+        <v>9.88637817467347</v>
       </c>
     </row>
     <row r="358">
@@ -11144,10 +11144,10 @@
         <v>9</v>
       </c>
       <c r="F359" t="n">
-        <v>33.3732236350037</v>
+        <v>33.229073577599</v>
       </c>
       <c r="G359" t="n">
-        <v>7.65582937415783</v>
+        <v>7.51167931675313</v>
       </c>
     </row>
     <row r="360">
@@ -11167,10 +11167,10 @@
         <v>9</v>
       </c>
       <c r="F360" t="n">
-        <v>39.4145950280674</v>
+        <v>39.3593593593594</v>
       </c>
       <c r="G360" t="n">
-        <v>9.97420573366347</v>
+        <v>9.91897006495547</v>
       </c>
     </row>
     <row r="361">
@@ -11190,10 +11190,10 @@
         <v>9</v>
       </c>
       <c r="F361" t="n">
-        <v>34.2097742212061</v>
+        <v>34.1447180754968</v>
       </c>
       <c r="G361" t="n">
-        <v>8.54637909216207</v>
+        <v>8.48132294645282</v>
       </c>
     </row>
     <row r="362">
@@ -11213,10 +11213,10 @@
         <v>9</v>
       </c>
       <c r="F362" t="n">
-        <v>32.422417786012</v>
+        <v>32.3275862068966</v>
       </c>
       <c r="G362" t="n">
-        <v>9.50455859883402</v>
+        <v>9.40972701971854</v>
       </c>
     </row>
     <row r="363">
@@ -11236,10 +11236,10 @@
         <v>9</v>
       </c>
       <c r="F363" t="n">
-        <v>33.8436452577226</v>
+        <v>33.7763312539553</v>
       </c>
       <c r="G363" t="n">
-        <v>8.27927674033397</v>
+        <v>8.21196273656669</v>
       </c>
     </row>
     <row r="364">
@@ -11259,10 +11259,10 @@
         <v>9</v>
       </c>
       <c r="F364" t="n">
-        <v>35.7003511509949</v>
+        <v>35.8401880141011</v>
       </c>
       <c r="G364" t="n">
-        <v>11.2920671273263</v>
+        <v>11.4319039904324</v>
       </c>
     </row>
     <row r="365">
@@ -11282,10 +11282,10 @@
         <v>9</v>
       </c>
       <c r="F365" t="n">
-        <v>36.4030649125343</v>
+        <v>36.3715152390582</v>
       </c>
       <c r="G365" t="n">
-        <v>8.1278792602995</v>
+        <v>8.09632958682338</v>
       </c>
     </row>
     <row r="366">
@@ -11305,10 +11305,10 @@
         <v>9</v>
       </c>
       <c r="F366" t="n">
-        <v>31.4694408322497</v>
+        <v>31.5514993481095</v>
       </c>
       <c r="G366" t="n">
-        <v>4.38869549063477</v>
+        <v>4.47075400649461</v>
       </c>
     </row>
     <row r="367">
@@ -11328,10 +11328,10 @@
         <v>9</v>
       </c>
       <c r="F367" t="n">
-        <v>36.8043087971275</v>
+        <v>36.4606491774122</v>
       </c>
       <c r="G367" t="n">
-        <v>8.80088853205692</v>
+        <v>8.45722891234164</v>
       </c>
     </row>
     <row r="368">
@@ -11351,10 +11351,10 @@
         <v>9</v>
       </c>
       <c r="F368" t="n">
-        <v>35.3693181818182</v>
+        <v>35.1570773032121</v>
       </c>
       <c r="G368" t="n">
-        <v>6.68993710949</v>
+        <v>6.47769623088396</v>
       </c>
     </row>
     <row r="369">
@@ -11374,10 +11374,10 @@
         <v>9</v>
       </c>
       <c r="F369" t="n">
-        <v>32.9083979497963</v>
+        <v>32.8608923884514</v>
       </c>
       <c r="G369" t="n">
-        <v>6.98105569358214</v>
+        <v>6.9335501322373</v>
       </c>
     </row>
     <row r="370">
@@ -11397,10 +11397,10 @@
         <v>9</v>
       </c>
       <c r="F370" t="n">
-        <v>29.3015826920285</v>
+        <v>29.2040520984081</v>
       </c>
       <c r="G370" t="n">
-        <v>6.80772855381486</v>
+        <v>6.7101979601945</v>
       </c>
     </row>
     <row r="371">
@@ -11420,10 +11420,10 @@
         <v>9</v>
       </c>
       <c r="F371" t="n">
-        <v>32.0807153214113</v>
+        <v>31.9995178980354</v>
       </c>
       <c r="G371" t="n">
-        <v>7.77427306952506</v>
+        <v>7.69307564614919</v>
       </c>
     </row>
     <row r="372">
@@ -11443,10 +11443,10 @@
         <v>9</v>
       </c>
       <c r="F372" t="n">
-        <v>31.8446899938613</v>
+        <v>31.8007662835249</v>
       </c>
       <c r="G372" t="n">
-        <v>7.72512799326937</v>
+        <v>7.68120428293301</v>
       </c>
     </row>
     <row r="373">
@@ -11466,10 +11466,10 @@
         <v>9</v>
       </c>
       <c r="F373" t="n">
-        <v>34.4166666666667</v>
+        <v>34.3308395677473</v>
       </c>
       <c r="G373" t="n">
-        <v>7.86963696369637</v>
+        <v>7.783809864777</v>
       </c>
     </row>
     <row r="374">
@@ -11489,10 +11489,10 @@
         <v>9</v>
       </c>
       <c r="F374" t="n">
-        <v>33.0377668308703</v>
+        <v>32.9188481675393</v>
       </c>
       <c r="G374" t="n">
-        <v>7.60558597980645</v>
+        <v>7.48666731647544</v>
       </c>
     </row>
     <row r="375">
@@ -11512,10 +11512,10 @@
         <v>9</v>
       </c>
       <c r="F375" t="n">
-        <v>33.5085085085085</v>
+        <v>33.5588972431078</v>
       </c>
       <c r="G375" t="n">
-        <v>8.78114355796324</v>
+        <v>8.8315322925625</v>
       </c>
     </row>
     <row r="376">
@@ -11535,10 +11535,10 @@
         <v>9</v>
       </c>
       <c r="F376" t="n">
-        <v>32.2508118910817</v>
+        <v>32.1410788381743</v>
       </c>
       <c r="G376" t="n">
-        <v>7.76117871723799</v>
+        <v>7.65144566433057</v>
       </c>
     </row>
     <row r="377">
@@ -11558,10 +11558,10 @@
         <v>9</v>
       </c>
       <c r="F377" t="n">
-        <v>34.333611188293</v>
+        <v>34.2796375069355</v>
       </c>
       <c r="G377" t="n">
-        <v>9.20001660332689</v>
+        <v>9.1460429219693</v>
       </c>
     </row>
     <row r="378">
@@ -11581,10 +11581,10 @@
         <v>9</v>
       </c>
       <c r="F378" t="n">
-        <v>32.1157822191592</v>
+        <v>32.0018312922056</v>
       </c>
       <c r="G378" t="n">
-        <v>4.78672961129618</v>
+        <v>4.67277868434254</v>
       </c>
     </row>
     <row r="379">
@@ -11604,10 +11604,10 @@
         <v>9</v>
       </c>
       <c r="F379" t="n">
-        <v>30.1200369344414</v>
+        <v>30.0811508668388</v>
       </c>
       <c r="G379" t="n">
-        <v>7.30183129104135</v>
+        <v>7.26294522343879</v>
       </c>
     </row>
     <row r="380">
@@ -11627,10 +11627,10 @@
         <v>9</v>
       </c>
       <c r="F380" t="n">
-        <v>35.3776041666667</v>
+        <v>35.2857142857143</v>
       </c>
       <c r="G380" t="n">
-        <v>8.80535884442134</v>
+        <v>8.71346896346897</v>
       </c>
     </row>
     <row r="381">
@@ -11650,10 +11650,10 @@
         <v>9</v>
       </c>
       <c r="F381" t="n">
-        <v>38.3386581469649</v>
+        <v>38.2214294814626</v>
       </c>
       <c r="G381" t="n">
-        <v>7.06253323917041</v>
+        <v>6.94530457366816</v>
       </c>
     </row>
     <row r="382">
@@ -11673,10 +11673,10 @@
         <v>9</v>
       </c>
       <c r="F382" t="n">
-        <v>39.0915119363395</v>
+        <v>38.9880952380952</v>
       </c>
       <c r="G382" t="n">
-        <v>6.87674683566838</v>
+        <v>6.7733301374241</v>
       </c>
     </row>
     <row r="383">
@@ -11696,10 +11696,10 @@
         <v>9</v>
       </c>
       <c r="F383" t="n">
-        <v>34.7408650260999</v>
+        <v>34.6826726223711</v>
       </c>
       <c r="G383" t="n">
-        <v>9.14020976581598</v>
+        <v>9.08201736208717</v>
       </c>
     </row>
     <row r="384">
@@ -11719,10 +11719,10 @@
         <v>9</v>
       </c>
       <c r="F384" t="n">
-        <v>39.146478421306</v>
+        <v>39.0962986700849</v>
       </c>
       <c r="G384" t="n">
-        <v>9.07896389783288</v>
+        <v>9.02878414661185</v>
       </c>
     </row>
     <row r="385">
@@ -11742,10 +11742,10 @@
         <v>9</v>
       </c>
       <c r="F385" t="n">
-        <v>34.5497630331754</v>
+        <v>34.6153846153846</v>
       </c>
       <c r="G385" t="n">
-        <v>8.2061506983736</v>
+        <v>8.27177228058285</v>
       </c>
     </row>
     <row r="386">
@@ -11765,10 +11765,10 @@
         <v>9</v>
       </c>
       <c r="F386" t="n">
-        <v>36.5193996035118</v>
+        <v>36.4935616244517</v>
       </c>
       <c r="G386" t="n">
-        <v>6.29792497497236</v>
+        <v>6.27208699591229</v>
       </c>
     </row>
     <row r="387">
@@ -11788,10 +11788,10 @@
         <v>9</v>
       </c>
       <c r="F387" t="n">
-        <v>36.1851332398317</v>
+        <v>36.0536612632756</v>
       </c>
       <c r="G387" t="n">
-        <v>6.83963967759993</v>
+        <v>6.70816770104381</v>
       </c>
     </row>
     <row r="388">
@@ -11811,10 +11811,10 @@
         <v>9</v>
       </c>
       <c r="F388" t="n">
-        <v>34.6364018495166</v>
+        <v>34.6073078538429</v>
       </c>
       <c r="G388" t="n">
-        <v>6.20038289217063</v>
+        <v>6.17128889649695</v>
       </c>
     </row>
     <row r="389">
@@ -11834,10 +11834,10 @@
         <v>9</v>
       </c>
       <c r="F389" t="n">
-        <v>37.3626373626374</v>
+        <v>37.3385012919897</v>
       </c>
       <c r="G389" t="n">
-        <v>6.97729307963042</v>
+        <v>6.95315700898271</v>
       </c>
     </row>
     <row r="390">
@@ -11857,10 +11857,10 @@
         <v>9</v>
       </c>
       <c r="F390" t="n">
-        <v>31.5315315315315</v>
+        <v>31.4606741573034</v>
       </c>
       <c r="G390" t="n">
-        <v>4.16492223721139</v>
+        <v>4.09406486298323</v>
       </c>
     </row>
     <row r="391">
@@ -11880,10 +11880,10 @@
         <v>9</v>
       </c>
       <c r="F391" t="n">
-        <v>35.2629346904156</v>
+        <v>34.819932998325</v>
       </c>
       <c r="G391" t="n">
-        <v>10.4153416696042</v>
+        <v>9.97233997751352</v>
       </c>
     </row>
     <row r="392">
@@ -11903,10 +11903,10 @@
         <v>9</v>
       </c>
       <c r="F392" t="n">
-        <v>36.4488066027214</v>
+        <v>36.3515016685206</v>
       </c>
       <c r="G392" t="n">
-        <v>8.0556037634011</v>
+        <v>7.9582988292003</v>
       </c>
     </row>
     <row r="393">
@@ -11926,10 +11926,10 @@
         <v>9</v>
       </c>
       <c r="F393" t="n">
-        <v>34.6368715083799</v>
+        <v>34.4316919659385</v>
       </c>
       <c r="G393" t="n">
-        <v>8.3363986091438</v>
+        <v>8.13121906670246</v>
       </c>
     </row>
     <row r="394">
@@ -11949,10 +11949,10 @@
         <v>9</v>
       </c>
       <c r="F394" t="n">
-        <v>29.243081027009</v>
+        <v>29.0975447909755</v>
       </c>
       <c r="G394" t="n">
-        <v>9.48604777892716</v>
+        <v>9.34051154289361</v>
       </c>
     </row>
     <row r="395">
@@ -11972,10 +11972,10 @@
         <v>9</v>
       </c>
       <c r="F395" t="n">
-        <v>36.9393139841689</v>
+        <v>36.8227248816412</v>
       </c>
       <c r="G395" t="n">
-        <v>8.3443633804367</v>
+        <v>8.22777427790907</v>
       </c>
     </row>
     <row r="396">
@@ -11995,10 +11995,10 @@
         <v>9</v>
       </c>
       <c r="F396" t="n">
-        <v>35.0492313007428</v>
+        <v>34.9887911708915</v>
       </c>
       <c r="G396" t="n">
-        <v>6.26865640340303</v>
+        <v>6.20821627355177</v>
       </c>
     </row>
     <row r="397">
@@ -12018,10 +12018,10 @@
         <v>9</v>
       </c>
       <c r="F397" t="n">
-        <v>34.4389165284688</v>
+        <v>34.4579646017699</v>
       </c>
       <c r="G397" t="n">
-        <v>6.2792712956528</v>
+        <v>6.29831936895395</v>
       </c>
     </row>
     <row r="398">
@@ -12041,10 +12041,10 @@
         <v>9</v>
       </c>
       <c r="F398" t="n">
-        <v>33.8148873653281</v>
+        <v>33.6500974658869</v>
       </c>
       <c r="G398" t="n">
-        <v>8.69773647498134</v>
+        <v>8.53294657554018</v>
       </c>
     </row>
     <row r="399">
@@ -12064,10 +12064,10 @@
         <v>9</v>
       </c>
       <c r="F399" t="n">
-        <v>37.1115173674589</v>
+        <v>37.043795620438</v>
       </c>
       <c r="G399" t="n">
-        <v>9.45194289937376</v>
+        <v>9.38422115235286</v>
       </c>
     </row>
     <row r="400">
@@ -12087,10 +12087,10 @@
         <v>9</v>
       </c>
       <c r="F400" t="n">
-        <v>34.3510423671822</v>
+        <v>34.2634826938556</v>
       </c>
       <c r="G400" t="n">
-        <v>7.94647336731507</v>
+        <v>7.85891369398847</v>
       </c>
     </row>
     <row r="401">
@@ -12110,10 +12110,10 @@
         <v>9</v>
       </c>
       <c r="F401" t="n">
-        <v>37.1165644171779</v>
+        <v>36.8060836501901</v>
       </c>
       <c r="G401" t="n">
-        <v>11.01003778552</v>
+        <v>10.6995570185322</v>
       </c>
     </row>
     <row r="402">
@@ -12133,10 +12133,10 @@
         <v>9</v>
       </c>
       <c r="F402" t="n">
-        <v>36.8773062730627</v>
+        <v>36.7586206896552</v>
       </c>
       <c r="G402" t="n">
-        <v>5.77285619236178</v>
+        <v>5.65417060895423</v>
       </c>
     </row>
     <row r="403">
@@ -12156,10 +12156,10 @@
         <v>9</v>
       </c>
       <c r="F403" t="n">
-        <v>33.385153517295</v>
+        <v>33.398133748056</v>
       </c>
       <c r="G403" t="n">
-        <v>10.4057557359955</v>
+        <v>10.4187359667565</v>
       </c>
     </row>
     <row r="404">
@@ -12179,10 +12179,10 @@
         <v>9</v>
       </c>
       <c r="F404" t="n">
-        <v>40.2733485193622</v>
+        <v>40.200090950432</v>
       </c>
       <c r="G404" t="n">
-        <v>8.88065445543525</v>
+        <v>8.80739688650507</v>
       </c>
     </row>
     <row r="405">
@@ -12202,10 +12202,10 @@
         <v>9</v>
       </c>
       <c r="F405" t="n">
-        <v>39.1102257636122</v>
+        <v>38.9653347446414</v>
       </c>
       <c r="G405" t="n">
-        <v>7.60177322785148</v>
+        <v>7.45688220888071</v>
       </c>
     </row>
     <row r="406">
@@ -12225,10 +12225,10 @@
         <v>9</v>
       </c>
       <c r="F406" t="n">
-        <v>36.340247628236</v>
+        <v>36.2789951039409</v>
       </c>
       <c r="G406" t="n">
-        <v>6.32097361602917</v>
+        <v>6.25972109173405</v>
       </c>
     </row>
     <row r="407">
@@ -12248,10 +12248,10 @@
         <v>9</v>
       </c>
       <c r="F407" t="n">
-        <v>34.0999150863289</v>
+        <v>34.0685754683634</v>
       </c>
       <c r="G407" t="n">
-        <v>8.67317255432321</v>
+        <v>8.64183293635768</v>
       </c>
     </row>
     <row r="408">
@@ -12271,10 +12271,10 @@
         <v>9</v>
       </c>
       <c r="F408" t="n">
-        <v>39.3852341281241</v>
+        <v>39.2555476020043</v>
       </c>
       <c r="G408" t="n">
-        <v>7.53953512770175</v>
+        <v>7.40984860158194</v>
       </c>
     </row>
     <row r="409">
@@ -12294,10 +12294,10 @@
         <v>9</v>
       </c>
       <c r="F409" t="n">
-        <v>36.4222204094951</v>
+        <v>36.3895680521597</v>
       </c>
       <c r="G409" t="n">
-        <v>8.39609102180421</v>
+        <v>8.36343866446888</v>
       </c>
     </row>
     <row r="410">
@@ -12317,10 +12317,10 @@
         <v>9</v>
       </c>
       <c r="F410" t="n">
-        <v>46.2697814619442</v>
+        <v>46.1307287753569</v>
       </c>
       <c r="G410" t="n">
-        <v>9.07707725893075</v>
+        <v>8.93802457234339</v>
       </c>
     </row>
     <row r="411">
@@ -12340,10 +12340,10 @@
         <v>9</v>
       </c>
       <c r="F411" t="n">
-        <v>36.3703960739602</v>
+        <v>36.2320987654321</v>
       </c>
       <c r="G411" t="n">
-        <v>7.26682690611684</v>
+        <v>7.12852959758869</v>
       </c>
     </row>
     <row r="412">
@@ -12363,10 +12363,10 @@
         <v>9</v>
       </c>
       <c r="F412" t="n">
-        <v>36.1536846525299</v>
+        <v>36.0025088856366</v>
       </c>
       <c r="G412" t="n">
-        <v>7.78503622628018</v>
+        <v>7.63386045938689</v>
       </c>
     </row>
     <row r="413">
@@ -12386,10 +12386,10 @@
         <v>9</v>
       </c>
       <c r="F413" t="n">
-        <v>41.5402233037504</v>
+        <v>41.3861950941244</v>
       </c>
       <c r="G413" t="n">
-        <v>10.2991391382725</v>
+        <v>10.1451109286465</v>
       </c>
     </row>
     <row r="414">
@@ -12409,10 +12409,10 @@
         <v>9</v>
       </c>
       <c r="F414" t="n">
-        <v>39.413620337725</v>
+        <v>39.2606284658041</v>
       </c>
       <c r="G414" t="n">
-        <v>6.36094753568858</v>
+        <v>6.20795566376764</v>
       </c>
     </row>
     <row r="415">
@@ -12432,10 +12432,10 @@
         <v>9</v>
       </c>
       <c r="F415" t="n">
-        <v>41.9629444166249</v>
+        <v>41.8163672654691</v>
       </c>
       <c r="G415" t="n">
-        <v>9.16112209316252</v>
+        <v>9.01454494200664</v>
       </c>
     </row>
     <row r="416">
@@ -12455,10 +12455,10 @@
         <v>9</v>
       </c>
       <c r="F416" t="n">
-        <v>36.1725067385445</v>
+        <v>36.0558839333692</v>
       </c>
       <c r="G416" t="n">
-        <v>9.39379525395064</v>
+        <v>9.27717244877531</v>
       </c>
     </row>
     <row r="417">
@@ -12501,10 +12501,10 @@
         <v>9</v>
       </c>
       <c r="F418" t="n">
-        <v>37.3091849935317</v>
+        <v>37.203302373581</v>
       </c>
       <c r="G418" t="n">
-        <v>10.2163387226032</v>
+        <v>10.1104561026526</v>
       </c>
     </row>
     <row r="419">
@@ -12524,10 +12524,10 @@
         <v>9</v>
       </c>
       <c r="F419" t="n">
-        <v>34.9378259125552</v>
+        <v>34.7704590818363</v>
       </c>
       <c r="G419" t="n">
-        <v>6.55732276790107</v>
+        <v>6.38995593718224</v>
       </c>
     </row>
     <row r="420">
@@ -12547,10 +12547,10 @@
         <v>9</v>
       </c>
       <c r="F420" t="n">
-        <v>37.0977659356425</v>
+        <v>36.9237046103631</v>
       </c>
       <c r="G420" t="n">
-        <v>6.62119404937904</v>
+        <v>6.4471327240996</v>
       </c>
     </row>
     <row r="421">
@@ -12570,10 +12570,10 @@
         <v>9</v>
       </c>
       <c r="F421" t="n">
-        <v>35.9109936109275</v>
+        <v>35.7534547049792</v>
       </c>
       <c r="G421" t="n">
-        <v>8.36527222912576</v>
+        <v>8.20773332317739</v>
       </c>
     </row>
     <row r="422">
@@ -12593,10 +12593,10 @@
         <v>9</v>
       </c>
       <c r="F422" t="n">
-        <v>34.5766129032258</v>
+        <v>34.4032096288867</v>
       </c>
       <c r="G422" t="n">
-        <v>8.53416596190246</v>
+        <v>8.36076268756332</v>
       </c>
     </row>
   </sheetData>
